--- a/documento_projeto/Pixels - Orçamento de correção.xlsx
+++ b/documento_projeto/Pixels - Orçamento de correção.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Carolina\FATEC\3 Semestre\acessibilidade\semana_06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pixels\documento_projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72783C2-E844-4B81-A671-BBA6B7C68950}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E63802C-DACC-47D2-8D95-2DE3CC99E47D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="orçamento" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="114">
   <si>
     <t>ID</t>
   </si>
@@ -376,6 +376,9 @@
   <si>
     <t>Todas as paginas não possui link para no inicio para levar ao 
 conteudo h1</t>
+  </si>
+  <si>
+    <t>Tempo Gasto/min</t>
   </si>
 </sst>
 </file>
@@ -426,7 +429,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -455,6 +458,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF99FF"/>
         <bgColor rgb="FFFF99FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -550,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -617,9 +626,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -632,9 +638,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -682,6 +685,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -905,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A045B8F-3550-4BE9-82FC-AF0F1FC4BEDF}">
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" topLeftCell="F49" workbookViewId="0">
+      <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -920,7 +935,8 @@
     <col min="7" max="7" width="17.5703125" customWidth="1"/>
     <col min="8" max="8" width="22.28515625" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="12" width="11.85546875" customWidth="1"/>
+    <col min="10" max="11" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" customWidth="1"/>
     <col min="13" max="13" width="9.140625" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
@@ -945,10 +961,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="42" t="s">
         <v>96</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -957,14 +973,16 @@
       <c r="J1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="N1" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="34" t="s">
         <v>109</v>
       </c>
     </row>
@@ -990,22 +1008,24 @@
       <c r="G2" s="12">
         <v>20</v>
       </c>
-      <c r="H2" s="27">
+      <c r="H2" s="26">
         <v>360</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="35">
+      <c r="J2" s="33">
         <f>H2/60</f>
         <v>6</v>
       </c>
-      <c r="K2" s="35">
+      <c r="K2" s="47">
         <f>O2*J2</f>
         <v>450</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="N2" s="40" t="s">
+      <c r="L2" s="49">
+        <v>400</v>
+      </c>
+      <c r="N2" s="38" t="s">
         <v>98</v>
       </c>
       <c r="O2" s="25">
@@ -1034,22 +1054,22 @@
       <c r="G3" s="12">
         <v>60</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="26">
         <v>60</v>
       </c>
-      <c r="I3" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J3" s="35">
+      <c r="I3" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" s="33">
         <f t="shared" ref="J3:J66" si="0">H3/60</f>
         <v>1</v>
       </c>
-      <c r="K3" s="35">
+      <c r="K3" s="47">
         <f>O4*J3</f>
         <v>52.5</v>
       </c>
-      <c r="L3" s="26"/>
-      <c r="N3" s="41" t="s">
+      <c r="L3" s="49"/>
+      <c r="N3" s="39" t="s">
         <v>106</v>
       </c>
       <c r="O3" s="25">
@@ -1078,22 +1098,22 @@
       <c r="G4" s="12">
         <v>10</v>
       </c>
-      <c r="H4" s="27">
-        <v>10</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J4" s="35">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K4" s="35">
+      <c r="H4" s="26">
+        <v>10</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4" s="33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K4" s="47">
         <f>O5*J4</f>
         <v>10</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="N4" s="42" t="s">
+      <c r="L4" s="49"/>
+      <c r="N4" s="40" t="s">
         <v>99</v>
       </c>
       <c r="O4" s="25">
@@ -1122,22 +1142,22 @@
       <c r="G5" s="12">
         <v>10</v>
       </c>
-      <c r="H5" s="27">
-        <v>10</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J5" s="35">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K5" s="35">
+      <c r="H5" s="26">
+        <v>10</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" s="33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K5" s="47">
         <f>O6*J5</f>
         <v>14.25</v>
       </c>
-      <c r="L5" s="26"/>
-      <c r="N5" s="42" t="s">
+      <c r="L5" s="49"/>
+      <c r="N5" s="40" t="s">
         <v>104</v>
       </c>
       <c r="O5" s="25">
@@ -1166,21 +1186,21 @@
       <c r="G6" s="12">
         <v>15</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="26">
         <v>20</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="33">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K6" s="47">
         <f>O3*J6</f>
         <v>17.5</v>
       </c>
-      <c r="L6" s="26"/>
+      <c r="L6" s="49"/>
       <c r="N6" s="19" t="s">
         <v>105</v>
       </c>
@@ -1210,21 +1230,21 @@
       <c r="G7" s="12">
         <v>15</v>
       </c>
-      <c r="H7" s="27">
-        <v>10</v>
-      </c>
-      <c r="I7" s="32" t="s">
+      <c r="H7" s="26">
+        <v>10</v>
+      </c>
+      <c r="I7" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="J7" s="35">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K7" s="35">
+      <c r="J7" s="33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K7" s="47">
         <f>O2*J7</f>
         <v>12.5</v>
       </c>
-      <c r="L7" s="26"/>
+      <c r="L7" s="49"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -1248,21 +1268,21 @@
       <c r="G8" s="12">
         <v>10</v>
       </c>
-      <c r="H8" s="27">
-        <v>10</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J8" s="35">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K8" s="35">
+      <c r="H8" s="26">
+        <v>10</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" s="33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K8" s="47">
         <f>$O$4*J8</f>
         <v>8.75</v>
       </c>
-      <c r="L8" s="26"/>
+      <c r="L8" s="49"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -1286,21 +1306,21 @@
       <c r="G9" s="12">
         <v>10</v>
       </c>
-      <c r="H9" s="27">
-        <v>10</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J9" s="35">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K9" s="35">
+      <c r="H9" s="26">
+        <v>10</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" s="33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K9" s="47">
         <f t="shared" ref="K9:K21" si="1">$O$4*J9</f>
         <v>8.75</v>
       </c>
-      <c r="L9" s="26"/>
+      <c r="L9" s="49"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -1324,21 +1344,21 @@
       <c r="G10" s="12">
         <v>10</v>
       </c>
-      <c r="H10" s="27">
-        <v>10</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J10" s="35">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K10" s="35">
+      <c r="H10" s="26">
+        <v>10</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" s="33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K10" s="47">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="L10" s="26"/>
+      <c r="L10" s="49"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -1362,21 +1382,21 @@
       <c r="G11" s="12">
         <v>10</v>
       </c>
-      <c r="H11" s="27">
-        <v>10</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J11" s="35">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K11" s="35">
+      <c r="H11" s="26">
+        <v>10</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K11" s="47">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="L11" s="26"/>
+      <c r="L11" s="49"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -1400,21 +1420,21 @@
       <c r="G12" s="12">
         <v>10</v>
       </c>
-      <c r="H12" s="27">
-        <v>10</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J12" s="35">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K12" s="35">
+      <c r="H12" s="26">
+        <v>10</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" s="33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K12" s="47">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="L12" s="26"/>
+      <c r="L12" s="49"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -1438,21 +1458,21 @@
       <c r="G13" s="12">
         <v>10</v>
       </c>
-      <c r="H13" s="27">
-        <v>10</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J13" s="35">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K13" s="35">
+      <c r="H13" s="26">
+        <v>10</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" s="33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K13" s="47">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="L13" s="26"/>
+      <c r="L13" s="49"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -1476,21 +1496,21 @@
       <c r="G14" s="12">
         <v>15</v>
       </c>
-      <c r="H14" s="27">
-        <v>10</v>
-      </c>
-      <c r="I14" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J14" s="35">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K14" s="35">
+      <c r="H14" s="26">
+        <v>10</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" s="33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K14" s="47">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="L14" s="26"/>
+      <c r="L14" s="49"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -1514,21 +1534,21 @@
       <c r="G15" s="12">
         <v>15</v>
       </c>
-      <c r="H15" s="27">
-        <v>10</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J15" s="35">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K15" s="35">
+      <c r="H15" s="26">
+        <v>10</v>
+      </c>
+      <c r="I15" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J15" s="33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K15" s="47">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="L15" s="26"/>
+      <c r="L15" s="49"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -1552,21 +1572,21 @@
       <c r="G16" s="12">
         <v>10</v>
       </c>
-      <c r="H16" s="27">
-        <v>10</v>
-      </c>
-      <c r="I16" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J16" s="35">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K16" s="35">
+      <c r="H16" s="26">
+        <v>10</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J16" s="33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K16" s="47">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="L16" s="26"/>
+      <c r="L16" s="49"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
@@ -1590,21 +1610,21 @@
       <c r="G17" s="12">
         <v>10</v>
       </c>
-      <c r="H17" s="27">
-        <v>10</v>
-      </c>
-      <c r="I17" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J17" s="35">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K17" s="35">
+      <c r="H17" s="26">
+        <v>10</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" s="33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K17" s="47">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="L17" s="26"/>
+      <c r="L17" s="49"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
@@ -1628,21 +1648,21 @@
       <c r="G18" s="12">
         <v>10</v>
       </c>
-      <c r="H18" s="27">
-        <v>10</v>
-      </c>
-      <c r="I18" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J18" s="35">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K18" s="35">
+      <c r="H18" s="26">
+        <v>10</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J18" s="33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K18" s="47">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="L18" s="26"/>
+      <c r="L18" s="49"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
@@ -1666,21 +1686,21 @@
       <c r="G19" s="12">
         <v>10</v>
       </c>
-      <c r="H19" s="27">
-        <v>10</v>
-      </c>
-      <c r="I19" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J19" s="35">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K19" s="35">
+      <c r="H19" s="26">
+        <v>10</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J19" s="33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K19" s="47">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="L19" s="26"/>
+      <c r="L19" s="49"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
@@ -1704,21 +1724,21 @@
       <c r="G20" s="12">
         <v>10</v>
       </c>
-      <c r="H20" s="27">
-        <v>10</v>
-      </c>
-      <c r="I20" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J20" s="35">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K20" s="35">
+      <c r="H20" s="26">
+        <v>10</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J20" s="33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K20" s="47">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="L20" s="26"/>
+      <c r="L20" s="49"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
@@ -1742,21 +1762,21 @@
       <c r="G21" s="12">
         <v>15</v>
       </c>
-      <c r="H21" s="27">
-        <v>10</v>
-      </c>
-      <c r="I21" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J21" s="35">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K21" s="35">
+      <c r="H21" s="26">
+        <v>10</v>
+      </c>
+      <c r="I21" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J21" s="33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K21" s="47">
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="L21" s="26"/>
+      <c r="L21" s="49"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
@@ -1780,21 +1800,21 @@
       <c r="G22" s="12">
         <v>15</v>
       </c>
-      <c r="H22" s="27">
+      <c r="H22" s="26">
         <v>15</v>
       </c>
-      <c r="I22" s="32" t="s">
+      <c r="I22" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="J22" s="35">
+      <c r="J22" s="33">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="K22" s="35">
+      <c r="K22" s="47">
         <f>$O$2*J22</f>
         <v>18.75</v>
       </c>
-      <c r="L22" s="26"/>
+      <c r="L22" s="49"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
@@ -1818,21 +1838,21 @@
       <c r="G23" s="12">
         <v>15</v>
       </c>
-      <c r="H23" s="27">
+      <c r="H23" s="26">
         <v>15</v>
       </c>
-      <c r="I23" s="32" t="s">
+      <c r="I23" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="J23" s="35">
+      <c r="J23" s="33">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="K23" s="35">
+      <c r="K23" s="47">
         <f t="shared" ref="K23:K25" si="2">$O$2*J23</f>
         <v>18.75</v>
       </c>
-      <c r="L23" s="26"/>
+      <c r="L23" s="49"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
@@ -1856,21 +1876,21 @@
       <c r="G24" s="12">
         <v>30</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H24" s="26">
         <v>15</v>
       </c>
-      <c r="I24" s="32" t="s">
+      <c r="I24" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="J24" s="35">
+      <c r="J24" s="33">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="K24" s="35">
+      <c r="K24" s="47">
         <f t="shared" si="2"/>
         <v>18.75</v>
       </c>
-      <c r="L24" s="26"/>
+      <c r="L24" s="49"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
@@ -1882,10 +1902,10 @@
       <c r="C25" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="38" t="s">
+      <c r="E25" s="36" t="s">
         <v>9</v>
       </c>
       <c r="F25" s="9" t="s">
@@ -1894,21 +1914,21 @@
       <c r="G25" s="12">
         <v>30</v>
       </c>
-      <c r="H25" s="27">
+      <c r="H25" s="26">
         <v>15</v>
       </c>
-      <c r="I25" s="32" t="s">
+      <c r="I25" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="J25" s="35">
+      <c r="J25" s="33">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="K25" s="35">
+      <c r="K25" s="47">
         <f t="shared" si="2"/>
         <v>18.75</v>
       </c>
-      <c r="L25" s="26"/>
+      <c r="L25" s="49"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
@@ -1920,10 +1940,10 @@
       <c r="C26" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="38" t="s">
+      <c r="E26" s="36" t="s">
         <v>9</v>
       </c>
       <c r="F26" s="9" t="s">
@@ -1932,21 +1952,21 @@
       <c r="G26" s="13">
         <v>20</v>
       </c>
-      <c r="H26" s="28">
+      <c r="H26" s="27">
         <v>20</v>
       </c>
-      <c r="I26" s="34" t="s">
+      <c r="I26" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="J26" s="35">
+      <c r="J26" s="33">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K26" s="35">
+      <c r="K26" s="47">
         <f>O3*J26</f>
         <v>17.5</v>
       </c>
-      <c r="L26" s="26"/>
+      <c r="L26" s="49"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
@@ -1958,10 +1978,10 @@
       <c r="C27" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="E27" s="36" t="s">
         <v>52</v>
       </c>
       <c r="F27" s="9" t="s">
@@ -1970,21 +1990,21 @@
       <c r="G27" s="13">
         <v>15</v>
       </c>
-      <c r="H27" s="28">
-        <v>10</v>
-      </c>
-      <c r="I27" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J27" s="35">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K27" s="35">
+      <c r="H27" s="27">
+        <v>10</v>
+      </c>
+      <c r="I27" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J27" s="33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K27" s="47">
         <f>$O$4*J27</f>
         <v>8.75</v>
       </c>
-      <c r="L27" s="26"/>
+      <c r="L27" s="49"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
@@ -1996,10 +2016,10 @@
       <c r="C28" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="38" t="s">
+      <c r="D28" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="E28" s="36" t="s">
         <v>54</v>
       </c>
       <c r="F28" s="9" t="s">
@@ -2008,21 +2028,21 @@
       <c r="G28" s="13">
         <v>15</v>
       </c>
-      <c r="H28" s="28">
-        <v>10</v>
-      </c>
-      <c r="I28" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J28" s="35">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K28" s="35">
+      <c r="H28" s="27">
+        <v>10</v>
+      </c>
+      <c r="I28" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J28" s="33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K28" s="47">
         <f t="shared" ref="K28:K30" si="3">$O$4*J28</f>
         <v>8.75</v>
       </c>
-      <c r="L28" s="26"/>
+      <c r="L28" s="49"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
@@ -2034,10 +2054,10 @@
       <c r="C29" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="38" t="s">
+      <c r="D29" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="E29" s="36" t="s">
         <v>39</v>
       </c>
       <c r="F29" s="9" t="s">
@@ -2046,21 +2066,21 @@
       <c r="G29" s="13">
         <v>15</v>
       </c>
-      <c r="H29" s="28">
-        <v>10</v>
-      </c>
-      <c r="I29" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J29" s="35">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K29" s="35">
+      <c r="H29" s="27">
+        <v>10</v>
+      </c>
+      <c r="I29" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J29" s="33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K29" s="47">
         <f t="shared" si="3"/>
         <v>8.75</v>
       </c>
-      <c r="L29" s="26"/>
+      <c r="L29" s="49"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
@@ -2072,10 +2092,10 @@
       <c r="C30" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="38" t="s">
+      <c r="D30" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="38" t="s">
+      <c r="E30" s="36" t="s">
         <v>55</v>
       </c>
       <c r="F30" s="9" t="s">
@@ -2084,21 +2104,21 @@
       <c r="G30" s="13">
         <v>15</v>
       </c>
-      <c r="H30" s="28">
-        <v>10</v>
-      </c>
-      <c r="I30" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J30" s="35">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K30" s="35">
+      <c r="H30" s="27">
+        <v>10</v>
+      </c>
+      <c r="I30" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J30" s="33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K30" s="47">
         <f t="shared" si="3"/>
         <v>8.75</v>
       </c>
-      <c r="L30" s="26"/>
+      <c r="L30" s="49"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
@@ -2110,10 +2130,10 @@
       <c r="C31" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="38" t="s">
+      <c r="E31" s="36" t="s">
         <v>37</v>
       </c>
       <c r="F31" s="9" t="s">
@@ -2122,21 +2142,21 @@
       <c r="G31" s="13">
         <v>10</v>
       </c>
-      <c r="H31" s="28">
+      <c r="H31" s="27">
         <v>15</v>
       </c>
-      <c r="I31" s="34" t="s">
+      <c r="I31" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="J31" s="35">
+      <c r="J31" s="33">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="K31" s="35">
+      <c r="K31" s="47">
         <f>O3*J31</f>
         <v>13.125</v>
       </c>
-      <c r="L31" s="26"/>
+      <c r="L31" s="49"/>
     </row>
     <row r="32" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
@@ -2148,33 +2168,33 @@
       <c r="C32" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="38" t="s">
+      <c r="D32" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="38" t="s">
+      <c r="E32" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="45" t="s">
+      <c r="F32" s="43" t="s">
         <v>60</v>
       </c>
       <c r="G32" s="13">
         <v>10</v>
       </c>
-      <c r="H32" s="28">
+      <c r="H32" s="27">
         <v>15</v>
       </c>
-      <c r="I32" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J32" s="35">
+      <c r="I32" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J32" s="33">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="K32" s="35">
+      <c r="K32" s="47">
         <f>$O$4*J32</f>
         <v>13.125</v>
       </c>
-      <c r="L32" s="26"/>
+      <c r="L32" s="49"/>
     </row>
     <row r="33" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
@@ -2186,33 +2206,33 @@
       <c r="C33" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="38" t="s">
+      <c r="D33" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="38" t="s">
+      <c r="E33" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="F33" s="45" t="s">
+      <c r="F33" s="43" t="s">
         <v>61</v>
       </c>
       <c r="G33" s="13">
         <v>10</v>
       </c>
-      <c r="H33" s="28">
+      <c r="H33" s="27">
         <v>15</v>
       </c>
-      <c r="I33" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J33" s="35">
+      <c r="I33" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J33" s="33">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="K33" s="35">
+      <c r="K33" s="47">
         <f>$O$4*J33</f>
         <v>13.125</v>
       </c>
-      <c r="L33" s="26"/>
+      <c r="L33" s="49"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
@@ -2236,21 +2256,21 @@
       <c r="G34" s="12">
         <v>10</v>
       </c>
-      <c r="H34" s="27">
+      <c r="H34" s="26">
         <v>60</v>
       </c>
-      <c r="I34" s="32" t="s">
+      <c r="I34" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="J34" s="35">
+      <c r="J34" s="33">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K34" s="35">
+      <c r="K34" s="47">
         <f>$O$2*J34</f>
         <v>75</v>
       </c>
-      <c r="L34" s="26"/>
+      <c r="L34" s="49"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
@@ -2262,10 +2282,10 @@
       <c r="C35" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="38" t="s">
+      <c r="D35" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="38" t="s">
+      <c r="E35" s="36" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="9" t="s">
@@ -2274,21 +2294,21 @@
       <c r="G35" s="12">
         <v>10</v>
       </c>
-      <c r="H35" s="27">
+      <c r="H35" s="26">
         <v>30</v>
       </c>
-      <c r="I35" s="32" t="s">
+      <c r="I35" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="J35" s="35">
+      <c r="J35" s="33">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="K35" s="35">
+      <c r="K35" s="47">
         <f t="shared" ref="K35:K37" si="4">$O$2*J35</f>
         <v>37.5</v>
       </c>
-      <c r="L35" s="26"/>
+      <c r="L35" s="49"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
@@ -2312,21 +2332,21 @@
       <c r="G36" s="12">
         <v>10</v>
       </c>
-      <c r="H36" s="27">
+      <c r="H36" s="26">
         <v>30</v>
       </c>
-      <c r="I36" s="32" t="s">
+      <c r="I36" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="J36" s="35">
+      <c r="J36" s="33">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="K36" s="35">
+      <c r="K36" s="47">
         <f t="shared" si="4"/>
         <v>37.5</v>
       </c>
-      <c r="L36" s="26"/>
+      <c r="L36" s="49"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
@@ -2350,21 +2370,21 @@
       <c r="G37" s="12">
         <v>10</v>
       </c>
-      <c r="H37" s="27">
+      <c r="H37" s="26">
         <v>30</v>
       </c>
-      <c r="I37" s="32" t="s">
+      <c r="I37" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="J37" s="35">
+      <c r="J37" s="33">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="K37" s="35">
+      <c r="K37" s="47">
         <f t="shared" si="4"/>
         <v>37.5</v>
       </c>
-      <c r="L37" s="26"/>
+      <c r="L37" s="49"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
@@ -2388,21 +2408,21 @@
       <c r="G38" s="12">
         <v>10</v>
       </c>
-      <c r="H38" s="27">
+      <c r="H38" s="26">
         <v>20</v>
       </c>
-      <c r="I38" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J38" s="35">
+      <c r="I38" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J38" s="33">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K38" s="35">
+      <c r="K38" s="47">
         <f>$O$4*J38</f>
         <v>17.5</v>
       </c>
-      <c r="L38" s="26"/>
+      <c r="L38" s="49"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
@@ -2426,21 +2446,21 @@
       <c r="G39" s="12">
         <v>10</v>
       </c>
-      <c r="H39" s="27">
+      <c r="H39" s="26">
         <v>20</v>
       </c>
-      <c r="I39" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J39" s="35">
+      <c r="I39" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J39" s="33">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K39" s="35">
+      <c r="K39" s="47">
         <f t="shared" ref="K39:K41" si="5">$O$4*J39</f>
         <v>17.5</v>
       </c>
-      <c r="L39" s="26"/>
+      <c r="L39" s="49"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
@@ -2464,21 +2484,21 @@
       <c r="G40" s="12">
         <v>10</v>
       </c>
-      <c r="H40" s="27">
+      <c r="H40" s="26">
         <v>60</v>
       </c>
-      <c r="I40" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J40" s="35">
+      <c r="I40" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J40" s="33">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K40" s="35">
+      <c r="K40" s="47">
         <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
-      <c r="L40" s="26"/>
+      <c r="L40" s="49"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
@@ -2502,21 +2522,21 @@
       <c r="G41" s="12">
         <v>10</v>
       </c>
-      <c r="H41" s="27">
+      <c r="H41" s="26">
         <v>60</v>
       </c>
-      <c r="I41" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J41" s="35">
+      <c r="I41" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J41" s="33">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K41" s="35">
+      <c r="K41" s="47">
         <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
-      <c r="L41" s="26"/>
+      <c r="L41" s="49"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
@@ -2540,21 +2560,21 @@
       <c r="G42" s="12">
         <v>10</v>
       </c>
-      <c r="H42" s="27">
+      <c r="H42" s="26">
         <v>15</v>
       </c>
-      <c r="I42" s="34" t="s">
+      <c r="I42" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="J42" s="35">
+      <c r="J42" s="33">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="K42" s="35">
+      <c r="K42" s="47">
         <f>$O$3*J42</f>
         <v>13.125</v>
       </c>
-      <c r="L42" s="26"/>
+      <c r="L42" s="49"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
@@ -2578,21 +2598,21 @@
       <c r="G43" s="12">
         <v>10</v>
       </c>
-      <c r="H43" s="27">
+      <c r="H43" s="26">
         <v>20</v>
       </c>
-      <c r="I43" s="34" t="s">
+      <c r="I43" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="J43" s="35">
+      <c r="J43" s="33">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K43" s="35">
+      <c r="K43" s="47">
         <f t="shared" ref="K43:K44" si="6">$O$3*J43</f>
         <v>17.5</v>
       </c>
-      <c r="L43" s="26"/>
+      <c r="L43" s="49"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
@@ -2616,21 +2636,21 @@
       <c r="G44" s="12">
         <v>10</v>
       </c>
-      <c r="H44" s="27">
+      <c r="H44" s="26">
         <v>20</v>
       </c>
-      <c r="I44" s="34" t="s">
+      <c r="I44" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="J44" s="35">
+      <c r="J44" s="33">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="K44" s="35">
+      <c r="K44" s="47">
         <f t="shared" si="6"/>
         <v>17.5</v>
       </c>
-      <c r="L44" s="26"/>
+      <c r="L44" s="49"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
@@ -2654,21 +2674,21 @@
       <c r="G45" s="12">
         <v>10</v>
       </c>
-      <c r="H45" s="27">
-        <v>10</v>
-      </c>
-      <c r="I45" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J45" s="35">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K45" s="35">
+      <c r="H45" s="26">
+        <v>10</v>
+      </c>
+      <c r="I45" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J45" s="33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K45" s="47">
         <f>$O$4*J45</f>
         <v>8.75</v>
       </c>
-      <c r="L45" s="26"/>
+      <c r="L45" s="49"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
@@ -2692,21 +2712,21 @@
       <c r="G46" s="12">
         <v>10</v>
       </c>
-      <c r="H46" s="27">
-        <v>10</v>
-      </c>
-      <c r="I46" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J46" s="35">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K46" s="35">
+      <c r="H46" s="26">
+        <v>10</v>
+      </c>
+      <c r="I46" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J46" s="33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K46" s="47">
         <f t="shared" ref="K46:K49" si="7">$O$4*J46</f>
         <v>8.75</v>
       </c>
-      <c r="L46" s="26"/>
+      <c r="L46" s="49"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
@@ -2730,21 +2750,21 @@
       <c r="G47" s="12">
         <v>10</v>
       </c>
-      <c r="H47" s="27">
-        <v>10</v>
-      </c>
-      <c r="I47" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J47" s="35">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K47" s="35">
+      <c r="H47" s="26">
+        <v>10</v>
+      </c>
+      <c r="I47" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J47" s="33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K47" s="47">
         <f t="shared" si="7"/>
         <v>8.75</v>
       </c>
-      <c r="L47" s="26"/>
+      <c r="L47" s="49"/>
     </row>
     <row r="48" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
@@ -2762,27 +2782,27 @@
       <c r="E48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="46" t="s">
+      <c r="F48" s="44" t="s">
         <v>111</v>
       </c>
       <c r="G48" s="12">
         <v>10</v>
       </c>
-      <c r="H48" s="27">
+      <c r="H48" s="26">
         <v>15</v>
       </c>
-      <c r="I48" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J48" s="35">
+      <c r="I48" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J48" s="33">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="K48" s="35">
+      <c r="K48" s="47">
         <f t="shared" si="7"/>
         <v>13.125</v>
       </c>
-      <c r="L48" s="26"/>
+      <c r="L48" s="49"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
@@ -2806,21 +2826,21 @@
       <c r="G49" s="12">
         <v>20</v>
       </c>
-      <c r="H49" s="27">
-        <v>10</v>
-      </c>
-      <c r="I49" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J49" s="35">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K49" s="35">
+      <c r="H49" s="26">
+        <v>10</v>
+      </c>
+      <c r="I49" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J49" s="33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K49" s="47">
         <f t="shared" si="7"/>
         <v>8.75</v>
       </c>
-      <c r="L49" s="26"/>
+      <c r="L49" s="49"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
@@ -2844,21 +2864,21 @@
       <c r="G50" s="12">
         <v>10</v>
       </c>
-      <c r="H50" s="27">
-        <v>10</v>
-      </c>
-      <c r="I50" s="34" t="s">
+      <c r="H50" s="26">
+        <v>10</v>
+      </c>
+      <c r="I50" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="J50" s="35">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K50" s="35">
+      <c r="J50" s="33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K50" s="47">
         <f>O3*J50</f>
         <v>8.75</v>
       </c>
-      <c r="L50" s="26"/>
+      <c r="L50" s="49"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
@@ -2882,21 +2902,21 @@
       <c r="G51" s="12">
         <v>10</v>
       </c>
-      <c r="H51" s="27">
-        <v>10</v>
-      </c>
-      <c r="I51" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J51" s="35">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K51" s="35">
+      <c r="H51" s="26">
+        <v>10</v>
+      </c>
+      <c r="I51" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J51" s="33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K51" s="47">
         <f>$O$4*J51</f>
         <v>8.75</v>
       </c>
-      <c r="L51" s="26"/>
+      <c r="L51" s="49"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
@@ -2920,21 +2940,21 @@
       <c r="G52" s="12">
         <v>10</v>
       </c>
-      <c r="H52" s="27">
-        <v>10</v>
-      </c>
-      <c r="I52" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J52" s="35">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K52" s="35">
+      <c r="H52" s="26">
+        <v>10</v>
+      </c>
+      <c r="I52" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J52" s="33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K52" s="47">
         <f t="shared" ref="K52:K67" si="8">$O$4*J52</f>
         <v>8.75</v>
       </c>
-      <c r="L52" s="26"/>
+      <c r="L52" s="49"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
@@ -2958,21 +2978,21 @@
       <c r="G53" s="12">
         <v>15</v>
       </c>
-      <c r="H53" s="27">
+      <c r="H53" s="26">
         <v>15</v>
       </c>
-      <c r="I53" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J53" s="35">
+      <c r="I53" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J53" s="33">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="K53" s="35">
+      <c r="K53" s="47">
         <f t="shared" si="8"/>
         <v>13.125</v>
       </c>
-      <c r="L53" s="26"/>
+      <c r="L53" s="49"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
@@ -2996,21 +3016,21 @@
       <c r="G54" s="12">
         <v>10</v>
       </c>
-      <c r="H54" s="27">
-        <v>10</v>
-      </c>
-      <c r="I54" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J54" s="35">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K54" s="35">
+      <c r="H54" s="26">
+        <v>10</v>
+      </c>
+      <c r="I54" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J54" s="33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K54" s="47">
         <f t="shared" si="8"/>
         <v>8.75</v>
       </c>
-      <c r="L54" s="26"/>
+      <c r="L54" s="49"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
@@ -3034,21 +3054,21 @@
       <c r="G55" s="12">
         <v>10</v>
       </c>
-      <c r="H55" s="27">
-        <v>10</v>
-      </c>
-      <c r="I55" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J55" s="35">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K55" s="35">
+      <c r="H55" s="26">
+        <v>10</v>
+      </c>
+      <c r="I55" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J55" s="33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K55" s="47">
         <f t="shared" si="8"/>
         <v>8.75</v>
       </c>
-      <c r="L55" s="26"/>
+      <c r="L55" s="49"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
@@ -3072,21 +3092,21 @@
       <c r="G56" s="12">
         <v>10</v>
       </c>
-      <c r="H56" s="27">
-        <v>10</v>
-      </c>
-      <c r="I56" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J56" s="35">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K56" s="35">
+      <c r="H56" s="26">
+        <v>10</v>
+      </c>
+      <c r="I56" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J56" s="33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K56" s="47">
         <f t="shared" si="8"/>
         <v>8.75</v>
       </c>
-      <c r="L56" s="26"/>
+      <c r="L56" s="49"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
@@ -3110,21 +3130,21 @@
       <c r="G57" s="12">
         <v>10</v>
       </c>
-      <c r="H57" s="27">
-        <v>10</v>
-      </c>
-      <c r="I57" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J57" s="35">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K57" s="35">
+      <c r="H57" s="26">
+        <v>10</v>
+      </c>
+      <c r="I57" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J57" s="33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K57" s="47">
         <f t="shared" si="8"/>
         <v>8.75</v>
       </c>
-      <c r="L57" s="26"/>
+      <c r="L57" s="49"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
@@ -3148,21 +3168,21 @@
       <c r="G58" s="12">
         <v>15</v>
       </c>
-      <c r="H58" s="27">
-        <v>10</v>
-      </c>
-      <c r="I58" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J58" s="35">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K58" s="35">
+      <c r="H58" s="26">
+        <v>10</v>
+      </c>
+      <c r="I58" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J58" s="33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K58" s="47">
         <f t="shared" si="8"/>
         <v>8.75</v>
       </c>
-      <c r="L58" s="26"/>
+      <c r="L58" s="49"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
@@ -3186,21 +3206,21 @@
       <c r="G59" s="12">
         <v>10</v>
       </c>
-      <c r="H59" s="27">
-        <v>10</v>
-      </c>
-      <c r="I59" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J59" s="35">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K59" s="35">
+      <c r="H59" s="26">
+        <v>10</v>
+      </c>
+      <c r="I59" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J59" s="33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K59" s="47">
         <f t="shared" si="8"/>
         <v>8.75</v>
       </c>
-      <c r="L59" s="26"/>
+      <c r="L59" s="49"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
@@ -3224,21 +3244,21 @@
       <c r="G60" s="12">
         <v>15</v>
       </c>
-      <c r="H60" s="27">
-        <v>10</v>
-      </c>
-      <c r="I60" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J60" s="35">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K60" s="35">
+      <c r="H60" s="26">
+        <v>10</v>
+      </c>
+      <c r="I60" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J60" s="33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K60" s="47">
         <f t="shared" si="8"/>
         <v>8.75</v>
       </c>
-      <c r="L60" s="26"/>
+      <c r="L60" s="49"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
@@ -3262,21 +3282,21 @@
       <c r="G61" s="12">
         <v>15</v>
       </c>
-      <c r="H61" s="27">
-        <v>10</v>
-      </c>
-      <c r="I61" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J61" s="35">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K61" s="35">
+      <c r="H61" s="26">
+        <v>10</v>
+      </c>
+      <c r="I61" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J61" s="33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K61" s="47">
         <f t="shared" si="8"/>
         <v>8.75</v>
       </c>
-      <c r="L61" s="26"/>
+      <c r="L61" s="49"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
@@ -3300,21 +3320,21 @@
       <c r="G62" s="12">
         <v>10</v>
       </c>
-      <c r="H62" s="27">
-        <v>10</v>
-      </c>
-      <c r="I62" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J62" s="35">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K62" s="35">
+      <c r="H62" s="26">
+        <v>10</v>
+      </c>
+      <c r="I62" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J62" s="33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K62" s="47">
         <f t="shared" si="8"/>
         <v>8.75</v>
       </c>
-      <c r="L62" s="26"/>
+      <c r="L62" s="49"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
@@ -3338,21 +3358,21 @@
       <c r="G63" s="12">
         <v>10</v>
       </c>
-      <c r="H63" s="27">
-        <v>10</v>
-      </c>
-      <c r="I63" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J63" s="35">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K63" s="35">
+      <c r="H63" s="26">
+        <v>10</v>
+      </c>
+      <c r="I63" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J63" s="33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K63" s="47">
         <f t="shared" si="8"/>
         <v>8.75</v>
       </c>
-      <c r="L63" s="26"/>
+      <c r="L63" s="49"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
@@ -3376,21 +3396,21 @@
       <c r="G64" s="12">
         <v>10</v>
       </c>
-      <c r="H64" s="27">
-        <v>10</v>
-      </c>
-      <c r="I64" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J64" s="35">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K64" s="35">
+      <c r="H64" s="26">
+        <v>10</v>
+      </c>
+      <c r="I64" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J64" s="33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K64" s="47">
         <f t="shared" si="8"/>
         <v>8.75</v>
       </c>
-      <c r="L64" s="26"/>
+      <c r="L64" s="49"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
@@ -3414,21 +3434,21 @@
       <c r="G65" s="12">
         <v>10</v>
       </c>
-      <c r="H65" s="27">
-        <v>10</v>
-      </c>
-      <c r="I65" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J65" s="35">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K65" s="35">
+      <c r="H65" s="26">
+        <v>10</v>
+      </c>
+      <c r="I65" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J65" s="33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K65" s="47">
         <f t="shared" si="8"/>
         <v>8.75</v>
       </c>
-      <c r="L65" s="26"/>
+      <c r="L65" s="49"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
@@ -3452,21 +3472,21 @@
       <c r="G66" s="12">
         <v>10</v>
       </c>
-      <c r="H66" s="27">
-        <v>10</v>
-      </c>
-      <c r="I66" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J66" s="35">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K66" s="35">
+      <c r="H66" s="26">
+        <v>10</v>
+      </c>
+      <c r="I66" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J66" s="33">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K66" s="47">
         <f t="shared" si="8"/>
         <v>8.75</v>
       </c>
-      <c r="L66" s="26"/>
+      <c r="L66" s="49"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
@@ -3490,21 +3510,21 @@
       <c r="G67" s="12">
         <v>10</v>
       </c>
-      <c r="H67" s="27">
-        <v>10</v>
-      </c>
-      <c r="I67" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J67" s="35">
+      <c r="H67" s="26">
+        <v>10</v>
+      </c>
+      <c r="I67" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J67" s="33">
         <f t="shared" ref="J67:J70" si="9">H67/60</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="K67" s="35">
+      <c r="K67" s="47">
         <f t="shared" si="8"/>
         <v>8.75</v>
       </c>
-      <c r="L67" s="26"/>
+      <c r="L67" s="49"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
@@ -3528,21 +3548,21 @@
       <c r="G68" s="12">
         <v>20</v>
       </c>
-      <c r="H68" s="27">
+      <c r="H68" s="26">
         <v>30</v>
       </c>
-      <c r="I68" s="33" t="s">
+      <c r="I68" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="J68" s="35">
+      <c r="J68" s="33">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K68" s="35">
+      <c r="K68" s="47">
         <f>$O$2*J68</f>
         <v>37.5</v>
       </c>
-      <c r="L68" s="26"/>
+      <c r="L68" s="49"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="15">
@@ -3566,21 +3586,21 @@
       <c r="G69" s="18">
         <v>20</v>
       </c>
-      <c r="H69" s="29">
+      <c r="H69" s="28">
         <v>30</v>
       </c>
-      <c r="I69" s="33" t="s">
+      <c r="I69" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="J69" s="35">
+      <c r="J69" s="33">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="K69" s="35">
+      <c r="K69" s="47">
         <f>$O$2*J69</f>
         <v>37.5</v>
       </c>
-      <c r="L69" s="26"/>
+      <c r="L69" s="49"/>
     </row>
     <row r="70" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A70" s="19">
@@ -3596,27 +3616,29 @@
       <c r="E70" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="F70" s="47" t="s">
+      <c r="F70" s="45" t="s">
         <v>112</v>
       </c>
       <c r="G70" s="23">
         <v>30</v>
       </c>
-      <c r="H70" s="30">
+      <c r="H70" s="29">
         <v>480</v>
       </c>
-      <c r="I70" s="34" t="s">
+      <c r="I70" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="J70" s="35">
+      <c r="J70" s="33">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="K70" s="35">
+      <c r="K70" s="47">
         <f>O3*J70</f>
         <v>420</v>
       </c>
-      <c r="L70" s="26"/>
+      <c r="L70" s="49">
+        <v>120</v>
+      </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G71" s="14">
@@ -3625,7 +3647,7 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F72" s="37" t="s">
+      <c r="F72" s="35" t="s">
         <v>110</v>
       </c>
       <c r="G72" s="24">

--- a/documento_projeto/Pixels - Orçamento de correção.xlsx
+++ b/documento_projeto/Pixels - Orçamento de correção.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pixels\documento_projeto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fatec\pixels\documento_projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E63802C-DACC-47D2-8D95-2DE3CC99E47D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1190DB3D-8491-4D1D-BFB8-7697C06ABED2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="2835" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="orçamento" sheetId="4" r:id="rId1"/>
@@ -399,21 +399,25 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -559,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -696,6 +700,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -920,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A045B8F-3550-4BE9-82FC-AF0F1FC4BEDF}">
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F49" workbookViewId="0">
-      <selection activeCell="M70" sqref="M70"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1068,7 +1078,9 @@
         <f>O4*J3</f>
         <v>52.5</v>
       </c>
-      <c r="L3" s="49"/>
+      <c r="L3" s="49">
+        <v>50</v>
+      </c>
       <c r="N3" s="39" t="s">
         <v>106</v>
       </c>
@@ -1112,7 +1124,9 @@
         <f>O5*J4</f>
         <v>10</v>
       </c>
-      <c r="L4" s="49"/>
+      <c r="L4" s="49">
+        <v>10</v>
+      </c>
       <c r="N4" s="40" t="s">
         <v>99</v>
       </c>
@@ -1156,7 +1170,9 @@
         <f>O6*J5</f>
         <v>14.25</v>
       </c>
-      <c r="L5" s="49"/>
+      <c r="L5" s="49">
+        <v>18</v>
+      </c>
       <c r="N5" s="40" t="s">
         <v>104</v>
       </c>
@@ -1200,7 +1216,9 @@
         <f>O3*J6</f>
         <v>17.5</v>
       </c>
-      <c r="L6" s="49"/>
+      <c r="L6" s="49">
+        <v>2</v>
+      </c>
       <c r="N6" s="19" t="s">
         <v>105</v>
       </c>
@@ -1218,7 +1236,7 @@
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="50" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -1244,7 +1262,9 @@
         <f>O2*J7</f>
         <v>12.5</v>
       </c>
-      <c r="L7" s="49"/>
+      <c r="L7" s="51">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">

--- a/documento_projeto/Pixels - Orçamento de correção.xlsx
+++ b/documento_projeto/Pixels - Orçamento de correção.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fatec\pixels\documento_projeto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUCASSILVESTREPAULA\Documents\GitHub\PIXELS\documento_projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1190DB3D-8491-4D1D-BFB8-7697C06ABED2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46AD1AF-B1AA-486B-9A60-BC5A32EB34A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="2835" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="orçamento" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -930,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A045B8F-3550-4BE9-82FC-AF0F1FC4BEDF}">
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="F31" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1302,7 +1301,9 @@
         <f>$O$4*J8</f>
         <v>8.75</v>
       </c>
-      <c r="L8" s="49"/>
+      <c r="L8" s="49">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -1340,7 +1341,9 @@
         <f t="shared" ref="K9:K21" si="1">$O$4*J9</f>
         <v>8.75</v>
       </c>
-      <c r="L9" s="49"/>
+      <c r="L9" s="49">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -1378,7 +1381,9 @@
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="L10" s="49"/>
+      <c r="L10" s="49">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -1416,7 +1421,9 @@
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="L11" s="49"/>
+      <c r="L11" s="49">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -1454,7 +1461,9 @@
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="L12" s="49"/>
+      <c r="L12" s="49">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -1492,7 +1501,9 @@
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="L13" s="49"/>
+      <c r="L13" s="49">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -1530,7 +1541,9 @@
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="L14" s="49"/>
+      <c r="L14" s="49">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -1568,7 +1581,9 @@
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="L15" s="49"/>
+      <c r="L15" s="49">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -1606,7 +1621,9 @@
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="L16" s="49"/>
+      <c r="L16" s="49">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
@@ -1644,7 +1661,9 @@
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="L17" s="49"/>
+      <c r="L17" s="49">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
@@ -1682,7 +1701,9 @@
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="L18" s="49"/>
+      <c r="L18" s="49">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
@@ -1720,7 +1741,9 @@
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="L19" s="49"/>
+      <c r="L19" s="49">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
@@ -1758,7 +1781,9 @@
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="L20" s="49"/>
+      <c r="L20" s="49">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
@@ -1796,7 +1821,9 @@
         <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="L21" s="49"/>
+      <c r="L21" s="49">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
@@ -2024,7 +2051,9 @@
         <f>$O$4*J27</f>
         <v>8.75</v>
       </c>
-      <c r="L27" s="49"/>
+      <c r="L27" s="49">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
@@ -2062,7 +2091,9 @@
         <f t="shared" ref="K28:K30" si="3">$O$4*J28</f>
         <v>8.75</v>
       </c>
-      <c r="L28" s="49"/>
+      <c r="L28" s="49">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
@@ -2100,7 +2131,9 @@
         <f t="shared" si="3"/>
         <v>8.75</v>
       </c>
-      <c r="L29" s="49"/>
+      <c r="L29" s="49">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
@@ -2138,7 +2171,9 @@
         <f t="shared" si="3"/>
         <v>8.75</v>
       </c>
-      <c r="L30" s="49"/>
+      <c r="L30" s="49">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
@@ -3050,7 +3085,9 @@
         <f t="shared" si="8"/>
         <v>8.75</v>
       </c>
-      <c r="L54" s="49"/>
+      <c r="L54" s="49">
+        <v>10</v>
+      </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
@@ -3088,7 +3125,9 @@
         <f t="shared" si="8"/>
         <v>8.75</v>
       </c>
-      <c r="L55" s="49"/>
+      <c r="L55" s="49">
+        <v>10</v>
+      </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
@@ -3126,7 +3165,9 @@
         <f t="shared" si="8"/>
         <v>8.75</v>
       </c>
-      <c r="L56" s="49"/>
+      <c r="L56" s="49">
+        <v>10</v>
+      </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
@@ -3164,7 +3205,9 @@
         <f t="shared" si="8"/>
         <v>8.75</v>
       </c>
-      <c r="L57" s="49"/>
+      <c r="L57" s="49">
+        <v>10</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
@@ -3202,7 +3245,9 @@
         <f t="shared" si="8"/>
         <v>8.75</v>
       </c>
-      <c r="L58" s="49"/>
+      <c r="L58" s="49">
+        <v>10</v>
+      </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
@@ -3240,7 +3285,9 @@
         <f t="shared" si="8"/>
         <v>8.75</v>
       </c>
-      <c r="L59" s="49"/>
+      <c r="L59" s="49">
+        <v>10</v>
+      </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
@@ -3278,7 +3325,9 @@
         <f t="shared" si="8"/>
         <v>8.75</v>
       </c>
-      <c r="L60" s="49"/>
+      <c r="L60" s="49">
+        <v>10</v>
+      </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
@@ -3316,7 +3365,9 @@
         <f t="shared" si="8"/>
         <v>8.75</v>
       </c>
-      <c r="L61" s="49"/>
+      <c r="L61" s="49">
+        <v>10</v>
+      </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
@@ -3354,7 +3405,9 @@
         <f t="shared" si="8"/>
         <v>8.75</v>
       </c>
-      <c r="L62" s="49"/>
+      <c r="L62" s="49">
+        <v>10</v>
+      </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
@@ -3392,7 +3445,9 @@
         <f t="shared" si="8"/>
         <v>8.75</v>
       </c>
-      <c r="L63" s="49"/>
+      <c r="L63" s="49">
+        <v>10</v>
+      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
@@ -3430,7 +3485,9 @@
         <f t="shared" si="8"/>
         <v>8.75</v>
       </c>
-      <c r="L64" s="49"/>
+      <c r="L64" s="49">
+        <v>10</v>
+      </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
@@ -3468,7 +3525,9 @@
         <f t="shared" si="8"/>
         <v>8.75</v>
       </c>
-      <c r="L65" s="49"/>
+      <c r="L65" s="49">
+        <v>10</v>
+      </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
@@ -3506,7 +3565,9 @@
         <f t="shared" si="8"/>
         <v>8.75</v>
       </c>
-      <c r="L66" s="49"/>
+      <c r="L66" s="49">
+        <v>10</v>
+      </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
@@ -3544,7 +3605,9 @@
         <f t="shared" si="8"/>
         <v>8.75</v>
       </c>
-      <c r="L67" s="49"/>
+      <c r="L67" s="49">
+        <v>10</v>
+      </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="2">

--- a/documento_projeto/Pixels - Orçamento de correção.xlsx
+++ b/documento_projeto/Pixels - Orçamento de correção.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fatec\pixels\documento_projeto\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156781FF-1DE3-4CB1-B9C5-2541318ED48E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="orçamento" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="orçamento" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -22,150 +36,150 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="114">
   <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gravidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descrição</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tempo Estimado para testa/min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tempo Estimado para manutenção/min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Responsavel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investimento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tempo Gasto/min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Profissional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vl Hr Investido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crítico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NVDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menu não funciona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">index.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dropbox não funciona com o leitor de tela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prog.Senior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ausência dos textos descritivos de todas as imagens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desenho/desenho.php#galeria_vetor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descrição detalhada das imagens da galeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prog.Junior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Designer UI/UX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imagens da página com descrição errada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desenho/desenho.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Textos descritivos de imagens não condizentes com as imagens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texto descritivo de imagens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">servicos/quemSomos.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Textos descritivos de imagens com descrição errada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analista Teste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texto alternativo para imagem com erros de grafia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imagem do prédio da Fiesp com texto alternativo com erro 
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Gravidade</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Erro</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Tempo Estimado para testa/min</t>
+  </si>
+  <si>
+    <t>Tempo Estimado para manutenção/min</t>
+  </si>
+  <si>
+    <t>Responsavel</t>
+  </si>
+  <si>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t>Investimento</t>
+  </si>
+  <si>
+    <t>Tempo Gasto/min</t>
+  </si>
+  <si>
+    <t>Profissional</t>
+  </si>
+  <si>
+    <t>Vl Hr Investido</t>
+  </si>
+  <si>
+    <t>Crítico</t>
+  </si>
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>Menu não funciona</t>
+  </si>
+  <si>
+    <t>index.php</t>
+  </si>
+  <si>
+    <t>Dropbox não funciona com o leitor de tela</t>
+  </si>
+  <si>
+    <t>Prog.Senior</t>
+  </si>
+  <si>
+    <t>Leve</t>
+  </si>
+  <si>
+    <t>Ausência dos textos descritivos de todas as imagens</t>
+  </si>
+  <si>
+    <t>desenho/desenho.php#galeria_vetor</t>
+  </si>
+  <si>
+    <t>Descrição detalhada das imagens da galeria</t>
+  </si>
+  <si>
+    <t>Prog.Junior</t>
+  </si>
+  <si>
+    <t>Designer UI/UX</t>
+  </si>
+  <si>
+    <t>Imagens da página com descrição errada</t>
+  </si>
+  <si>
+    <t>desenho/desenho.php</t>
+  </si>
+  <si>
+    <t>Textos descritivos de imagens não condizentes com as imagens</t>
+  </si>
+  <si>
+    <t>Texto descritivo de imagens</t>
+  </si>
+  <si>
+    <t>servicos/quemSomos.php</t>
+  </si>
+  <si>
+    <t>Textos descritivos de imagens com descrição errada</t>
+  </si>
+  <si>
+    <t>Analista Teste</t>
+  </si>
+  <si>
+    <t>Texto alternativo para imagem com erros de grafia</t>
+  </si>
+  <si>
+    <t>Imagem do prédio da Fiesp com texto alternativo com erro 
 de grafia</t>
   </si>
   <si>
-    <t xml:space="preserve">Gerente Projetos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moderado</t>
+    <t>Gerente Projetos</t>
+  </si>
+  <si>
+    <t>Moderado</t>
   </si>
   <si>
     <t xml:space="preserve">Reconhecimento de links de midias sociais </t>
   </si>
   <si>
-    <t xml:space="preserve">Ícones dos links de midias sociais não identificados corretamente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texto descritivo de imagens com descrição incompatível 
+    <t>Ícones dos links de midias sociais não identificados corretamente</t>
+  </si>
+  <si>
+    <t>Texto descritivo de imagens com descrição incompatível 
 com as imagem</t>
   </si>
   <si>
-    <t xml:space="preserve">animcacao/animacao.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">animcacao/animacaoSobre.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texto de texto alternativo para imagens com erros de grafia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">animcacao/animacaoTecnicas.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Textos descritivos de imagens com erros de grafia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">animcacao/animacaoGaleria.php</t>
+    <t>animcacao/animacao.php</t>
+  </si>
+  <si>
+    <t>animcacao/animacaoSobre.php</t>
+  </si>
+  <si>
+    <t>Texto de texto alternativo para imagens com erros de grafia</t>
+  </si>
+  <si>
+    <t>animcacao/animacaoTecnicas.php</t>
+  </si>
+  <si>
+    <t>Textos descritivos de imagens com erros de grafia</t>
+  </si>
+  <si>
+    <t>animcacao/animacaoGaleria.php</t>
   </si>
   <si>
     <t xml:space="preserve">Ausência de textos descritivos de imagens. </t>
   </si>
   <si>
-    <t xml:space="preserve">ilustracao/ilustracao.php</t>
+    <t>ilustracao/ilustracao.php</t>
   </si>
   <si>
     <t xml:space="preserve">Textos descritivos de imagens. </t>
@@ -174,239 +188,219 @@
     <t xml:space="preserve">Ausência do texto descritivos da imagem. </t>
   </si>
   <si>
-    <t xml:space="preserve">ilustracao/ilustracaoSobre.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imagens sem os textos descritivos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ilustracao/ilustracaoGaleria.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modelagem/modelagemArtistas.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modelagem/modelagemGaleria.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pixel/pixelSobre.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texto descritivo da imagem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">servicos/carreira.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campos do formulário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">servicos/faleConosco.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O NVDA lê algo irreconhecível</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teclado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dropdown não funciona com função TAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sem registro dos links visualizados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ausencia na alteração de cor dos links já visitados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">animacao/animacaoGaleria.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Falta de descrição da imagem da galeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desenho/desenhoGaleria.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modelagemGaleria.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tecla de tela cheia do video</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erro ao deixar o video full screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retornar pagina artista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pixelArtistas.php?artista=artistas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Após escolher o artista que você quer acessar, não conseguimos 
+    <t>ilustracao/ilustracaoSobre.php</t>
+  </si>
+  <si>
+    <t>Imagens sem os textos descritivos</t>
+  </si>
+  <si>
+    <t>ilustracao/ilustracaoGaleria.php</t>
+  </si>
+  <si>
+    <t>modelagem/modelagemArtistas.php</t>
+  </si>
+  <si>
+    <t>modelagem/modelagemGaleria.php</t>
+  </si>
+  <si>
+    <t>pixel/pixelSobre.php</t>
+  </si>
+  <si>
+    <t>Texto descritivo da imagem</t>
+  </si>
+  <si>
+    <t>servicos/carreira.php</t>
+  </si>
+  <si>
+    <t>Campos do formulário</t>
+  </si>
+  <si>
+    <t>servicos/faleConosco.php</t>
+  </si>
+  <si>
+    <t>O NVDA lê algo irreconhecível</t>
+  </si>
+  <si>
+    <t>Teclado</t>
+  </si>
+  <si>
+    <t>Dropdown não funciona com função TAB</t>
+  </si>
+  <si>
+    <t>Sem registro dos links visualizados</t>
+  </si>
+  <si>
+    <t>Ausencia na alteração de cor dos links já visitados</t>
+  </si>
+  <si>
+    <t>animacao/animacaoGaleria.php</t>
+  </si>
+  <si>
+    <t>Falta de descrição da imagem da galeria</t>
+  </si>
+  <si>
+    <t>desenho/desenhoGaleria.php</t>
+  </si>
+  <si>
+    <t>modelagemGaleria.php</t>
+  </si>
+  <si>
+    <t>Tecla de tela cheia do video</t>
+  </si>
+  <si>
+    <t>Erro ao deixar o video full screen</t>
+  </si>
+  <si>
+    <t>Retornar pagina artista</t>
+  </si>
+  <si>
+    <t>pixelArtistas.php?artista=artistas</t>
+  </si>
+  <si>
+    <t>Após escolher o artista que você quer acessar, não conseguimos 
 retornar ao link "artistas" a não ser pelo nome</t>
   </si>
   <si>
-    <t xml:space="preserve">Após escolher o artista que você quer acessar, não conseguimos 
+    <t>Após escolher o artista que você quer acessar, não conseguimos 
 retornar ao link "artistas" a não ser pelo meno</t>
   </si>
   <si>
-    <t xml:space="preserve">Vlibras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não Possui a aplicação no site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O site não possui o conversor de texto para libras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dropbox não funciona com função TAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talkback</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usuário Iniciante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dificuldade em identicar a navegação do site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não conseguiu identificar onde poderia navegar no site.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imagem de dificil identificação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">animacao.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imagem que direciona a galeria esta de dificil leitura/identificação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">animacaoTecnicas.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imagem com informações diversas e abstratas devido ao tamanho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texto do conteudo - Flash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texto mencionou extenções, o que dificultou no entendimento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navegação secundaria - Desenho Vetorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desenho.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não conseguiu identificar a segunda navegação da pagina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Informação apresentada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ilustracaoSobre.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Video com informações em ingles, não conseguiu entender a informação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texto do conteúdo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modelagem.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texto em cor azul, impossibilitou a leitura da informação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Link do conteudo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pixel.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No card "Fique por dentro", o usuario tentou acessar clicando na imagem ou titulo, mas apenas o texto era o link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sem acesso ao link do whatsapp no rodapé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impossivel acessar o link do whatsapp no rodapé através do teclado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sem acesso ao link do facebook no rodapé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impossivel acessar o link do facebook no rodapé através do teclado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sem acesso ao link do instagram no rodapé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impossivel acessar o link do instagram no rodapé através do teclado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sem acesso a seta no rodapé, para retornar ao topo da página</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impossivel acessar a seta no rodapé para retornar ao topo da página, 
+    <t>Vlibras</t>
+  </si>
+  <si>
+    <t>Não Possui a aplicação no site</t>
+  </si>
+  <si>
+    <t>O site não possui o conversor de texto para libras</t>
+  </si>
+  <si>
+    <t>Dropbox não funciona com função TAB</t>
+  </si>
+  <si>
+    <t>Talkback</t>
+  </si>
+  <si>
+    <t>Usuário Iniciante</t>
+  </si>
+  <si>
+    <t>Dificuldade em identicar a navegação do site</t>
+  </si>
+  <si>
+    <t>Não conseguiu identificar onde poderia navegar no site.</t>
+  </si>
+  <si>
+    <t>Imagem de dificil identificação</t>
+  </si>
+  <si>
+    <t>animacao.php</t>
+  </si>
+  <si>
+    <t>Imagem que direciona a galeria esta de dificil leitura/identificação</t>
+  </si>
+  <si>
+    <t>animacaoTecnicas.php</t>
+  </si>
+  <si>
+    <t>Imagem com informações diversas e abstratas devido ao tamanho</t>
+  </si>
+  <si>
+    <t>Texto do conteudo - Flash</t>
+  </si>
+  <si>
+    <t>Texto mencionou extenções, o que dificultou no entendimento</t>
+  </si>
+  <si>
+    <t>Navegação secundaria - Desenho Vetorial</t>
+  </si>
+  <si>
+    <t>desenho.php</t>
+  </si>
+  <si>
+    <t>Não conseguiu identificar a segunda navegação da pagina</t>
+  </si>
+  <si>
+    <t>Informação apresentada</t>
+  </si>
+  <si>
+    <t>ilustracaoSobre.php</t>
+  </si>
+  <si>
+    <t>Video com informações em ingles, não conseguiu entender a informação</t>
+  </si>
+  <si>
+    <t>Texto do conteúdo</t>
+  </si>
+  <si>
+    <t>modelagem.php</t>
+  </si>
+  <si>
+    <t>Texto em cor azul, impossibilitou a leitura da informação</t>
+  </si>
+  <si>
+    <t>Link do conteudo</t>
+  </si>
+  <si>
+    <t>pixel.php</t>
+  </si>
+  <si>
+    <t>No card "Fique por dentro", o usuario tentou acessar clicando na imagem ou titulo, mas apenas o texto era o link</t>
+  </si>
+  <si>
+    <t>Sem acesso ao link do whatsapp no rodapé</t>
+  </si>
+  <si>
+    <t>Impossivel acessar o link do whatsapp no rodapé através do teclado</t>
+  </si>
+  <si>
+    <t>Sem acesso ao link do facebook no rodapé</t>
+  </si>
+  <si>
+    <t>Impossivel acessar o link do facebook no rodapé através do teclado</t>
+  </si>
+  <si>
+    <t>Sem acesso ao link do instagram no rodapé</t>
+  </si>
+  <si>
+    <t>Impossivel acessar o link do instagram no rodapé através do teclado</t>
+  </si>
+  <si>
+    <t>Sem acesso a seta no rodapé, para retornar ao topo da página</t>
+  </si>
+  <si>
+    <t>Impossivel acessar a seta no rodapé para retornar ao topo da página, 
 através do teclado</t>
   </si>
   <si>
-    <t xml:space="preserve">Não Possui link para conteudo Principal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">index/animacacao/desenho/modelagem/ilustracao/art</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Todas as paginas não possui link para no inicio para levar ao 
+    <t>Não Possui link para conteudo Principal</t>
+  </si>
+  <si>
+    <t>index/animacacao/desenho/modelagem/ilustracao/art</t>
+  </si>
+  <si>
+    <t>Todas as paginas não possui link para no inicio para levar ao 
 conteudo h1</t>
   </si>
   <si>
-    <t xml:space="preserve">Total em horas de teste</t>
+    <t>Total em horas de teste</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="D/M/YYYY"/>
-    <numFmt numFmtId="167" formatCode="0.00"/>
-    <numFmt numFmtId="168" formatCode="&quot;R$ &quot;#,##0.00"/>
-    <numFmt numFmtId="169" formatCode="HH:MM"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="165" formatCode="&quot;R$ &quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
@@ -467,257 +461,196 @@
     </fill>
   </fills>
   <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="44">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="45">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -776,41 +709,349 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H32" activeCellId="0" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="D34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="60.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="65.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="11.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="8.67"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="60.140625" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" customWidth="1"/>
+    <col min="6" max="6" width="65.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="11" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="15" width="14" customWidth="1"/>
+    <col min="16" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -854,8 +1095,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -873,35 +1114,35 @@
       <c r="F2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="H2" s="10" t="n">
+      <c r="G2" s="9">
+        <v>20</v>
+      </c>
+      <c r="H2" s="10">
         <v>360</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="12" t="n">
-        <f aca="false">H2/60</f>
+      <c r="J2" s="12">
+        <f t="shared" ref="J2:J33" si="0">H2/60</f>
         <v>6</v>
       </c>
-      <c r="K2" s="13" t="n">
-        <f aca="false">O2*J2</f>
+      <c r="K2" s="13">
+        <f>O2*J2</f>
         <v>450</v>
       </c>
-      <c r="L2" s="14" t="n">
+      <c r="L2" s="14">
         <v>400</v>
       </c>
       <c r="N2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="16" t="n">
+      <c r="O2" s="16">
         <v>75</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
@@ -919,35 +1160,35 @@
       <c r="F3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="9" t="n">
+      <c r="G3" s="9">
         <v>60</v>
       </c>
-      <c r="H3" s="10" t="n">
+      <c r="H3" s="10">
         <v>60</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="12" t="n">
-        <f aca="false">H3/60</f>
+      <c r="J3" s="12">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K3" s="13" t="n">
-        <f aca="false">O4*J3</f>
+      <c r="K3" s="13">
+        <f>O4*J3</f>
         <v>52.5</v>
       </c>
-      <c r="L3" s="14" t="n">
+      <c r="L3" s="14">
         <v>50</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="16" t="n">
+      <c r="O3" s="16">
         <v>52.5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -965,35 +1206,35 @@
       <c r="F4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H4" s="10" t="n">
+      <c r="G4" s="9">
+        <v>10</v>
+      </c>
+      <c r="H4" s="10">
         <v>10</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="12" t="n">
-        <f aca="false">H4/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K4" s="13" t="n">
-        <f aca="false">O5*J4</f>
-        <v>10</v>
-      </c>
-      <c r="L4" s="14" t="n">
+      <c r="J4" s="12">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K4" s="13">
+        <f>O5*J4</f>
+        <v>10</v>
+      </c>
+      <c r="L4" s="14">
         <v>10</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="16" t="n">
+      <c r="O4" s="16">
         <v>52.5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
@@ -1011,35 +1252,35 @@
       <c r="F5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H5" s="10" t="n">
+      <c r="G5" s="9">
+        <v>10</v>
+      </c>
+      <c r="H5" s="10">
         <v>10</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="12" t="n">
-        <f aca="false">H5/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K5" s="13" t="n">
-        <f aca="false">O6*J5</f>
+      <c r="J5" s="12">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K5" s="13">
+        <f>O6*J5</f>
         <v>14.25</v>
       </c>
-      <c r="L5" s="14" t="n">
+      <c r="L5" s="14">
         <v>18</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="16" t="n">
+      <c r="O5" s="16">
         <v>60</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
+    <row r="6" spans="1:15" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
@@ -1057,35 +1298,35 @@
       <c r="F6" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="H6" s="10" t="n">
+      <c r="G6" s="9">
+        <v>15</v>
+      </c>
+      <c r="H6" s="10">
         <v>20</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="12" t="n">
-        <f aca="false">H6/60</f>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="K6" s="13" t="n">
-        <f aca="false">O3*J6</f>
+      <c r="J6" s="12">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K6" s="13">
+        <f>O3*J6</f>
         <v>17.5</v>
       </c>
-      <c r="L6" s="14" t="n">
+      <c r="L6" s="14">
         <v>2</v>
       </c>
       <c r="N6" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="16" t="n">
+      <c r="O6" s="16">
         <v>85.5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -1103,29 +1344,29 @@
       <c r="F7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="H7" s="10" t="n">
+      <c r="G7" s="9">
+        <v>15</v>
+      </c>
+      <c r="H7" s="10">
         <v>10</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="12" t="n">
-        <f aca="false">H7/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K7" s="13" t="n">
-        <f aca="false">O2*J7</f>
+      <c r="J7" s="12">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K7" s="13">
+        <f>O2*J7</f>
         <v>12.5</v>
       </c>
-      <c r="L7" s="22" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+      <c r="L7" s="20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="17" t="s">
@@ -1143,29 +1384,29 @@
       <c r="F8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H8" s="10" t="n">
+      <c r="G8" s="9">
+        <v>10</v>
+      </c>
+      <c r="H8" s="10">
         <v>10</v>
       </c>
       <c r="I8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="12" t="n">
-        <f aca="false">H8/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K8" s="13" t="n">
-        <f aca="false">$O$4*J8</f>
+      <c r="J8" s="12">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K8" s="13">
+        <f t="shared" ref="K8:K21" si="1">$O$4*J8</f>
         <v>8.75</v>
       </c>
-      <c r="L8" s="14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
+      <c r="L8" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
@@ -1183,29 +1424,29 @@
       <c r="F9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H9" s="10" t="n">
+      <c r="G9" s="9">
+        <v>10</v>
+      </c>
+      <c r="H9" s="10">
         <v>10</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="12" t="n">
-        <f aca="false">H9/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K9" s="13" t="n">
-        <f aca="false">$O$4*J9</f>
+      <c r="J9" s="12">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K9" s="13">
+        <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="L9" s="14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
+      <c r="L9" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
@@ -1223,29 +1464,29 @@
       <c r="F10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H10" s="10" t="n">
+      <c r="G10" s="9">
+        <v>10</v>
+      </c>
+      <c r="H10" s="10">
         <v>10</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="12" t="n">
-        <f aca="false">H10/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K10" s="13" t="n">
-        <f aca="false">$O$4*J10</f>
+      <c r="J10" s="12">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K10" s="13">
+        <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="L10" s="14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
+      <c r="L10" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
@@ -1263,29 +1504,29 @@
       <c r="F11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H11" s="10" t="n">
+      <c r="G11" s="9">
+        <v>10</v>
+      </c>
+      <c r="H11" s="10">
         <v>10</v>
       </c>
       <c r="I11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="12" t="n">
-        <f aca="false">H11/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K11" s="13" t="n">
-        <f aca="false">$O$4*J11</f>
+      <c r="J11" s="12">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K11" s="13">
+        <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="L11" s="14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
+      <c r="L11" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -1303,29 +1544,29 @@
       <c r="F12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H12" s="10" t="n">
+      <c r="G12" s="9">
+        <v>10</v>
+      </c>
+      <c r="H12" s="10">
         <v>10</v>
       </c>
       <c r="I12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="12" t="n">
-        <f aca="false">H12/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K12" s="13" t="n">
-        <f aca="false">$O$4*J12</f>
+      <c r="J12" s="12">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K12" s="13">
+        <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="L12" s="14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="n">
+      <c r="L12" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
@@ -1343,29 +1584,29 @@
       <c r="F13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H13" s="10" t="n">
+      <c r="G13" s="9">
+        <v>10</v>
+      </c>
+      <c r="H13" s="10">
         <v>10</v>
       </c>
       <c r="I13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="12" t="n">
-        <f aca="false">H13/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K13" s="13" t="n">
-        <f aca="false">$O$4*J13</f>
+      <c r="J13" s="12">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K13" s="13">
+        <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="L13" s="14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="n">
+      <c r="L13" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="21" t="s">
@@ -1383,29 +1624,29 @@
       <c r="F14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="H14" s="10" t="n">
+      <c r="G14" s="9">
+        <v>15</v>
+      </c>
+      <c r="H14" s="10">
         <v>10</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="12" t="n">
-        <f aca="false">H14/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K14" s="13" t="n">
-        <f aca="false">$O$4*J14</f>
+      <c r="J14" s="12">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K14" s="13">
+        <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="L14" s="14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="n">
+      <c r="L14" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1423,29 +1664,29 @@
       <c r="F15" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="H15" s="10" t="n">
+      <c r="G15" s="9">
+        <v>15</v>
+      </c>
+      <c r="H15" s="10">
         <v>10</v>
       </c>
       <c r="I15" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="12" t="n">
-        <f aca="false">H15/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K15" s="13" t="n">
-        <f aca="false">$O$4*J15</f>
+      <c r="J15" s="12">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K15" s="13">
+        <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="L15" s="14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="n">
+      <c r="L15" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="17" t="s">
@@ -1463,29 +1704,29 @@
       <c r="F16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H16" s="10" t="n">
+      <c r="G16" s="9">
+        <v>10</v>
+      </c>
+      <c r="H16" s="10">
         <v>10</v>
       </c>
       <c r="I16" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="12" t="n">
-        <f aca="false">H16/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K16" s="13" t="n">
-        <f aca="false">$O$4*J16</f>
+      <c r="J16" s="12">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K16" s="13">
+        <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="L16" s="14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="n">
+      <c r="L16" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="17" t="s">
@@ -1503,29 +1744,29 @@
       <c r="F17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H17" s="10" t="n">
+      <c r="G17" s="9">
+        <v>10</v>
+      </c>
+      <c r="H17" s="10">
         <v>10</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="12" t="n">
-        <f aca="false">H17/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K17" s="13" t="n">
-        <f aca="false">$O$4*J17</f>
+      <c r="J17" s="12">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K17" s="13">
+        <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="L17" s="14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="n">
+      <c r="L17" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1543,29 +1784,29 @@
       <c r="F18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H18" s="10" t="n">
+      <c r="G18" s="9">
+        <v>10</v>
+      </c>
+      <c r="H18" s="10">
         <v>10</v>
       </c>
       <c r="I18" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="12" t="n">
-        <f aca="false">H18/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K18" s="13" t="n">
-        <f aca="false">$O$4*J18</f>
+      <c r="J18" s="12">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K18" s="13">
+        <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="L18" s="14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="n">
+      <c r="L18" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="17" t="s">
@@ -1583,29 +1824,29 @@
       <c r="F19" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H19" s="10" t="n">
+      <c r="G19" s="9">
+        <v>10</v>
+      </c>
+      <c r="H19" s="10">
         <v>10</v>
       </c>
       <c r="I19" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="12" t="n">
-        <f aca="false">H19/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K19" s="13" t="n">
-        <f aca="false">$O$4*J19</f>
+      <c r="J19" s="12">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K19" s="13">
+        <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="L19" s="14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="n">
+      <c r="L19" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="21" t="s">
@@ -1623,29 +1864,29 @@
       <c r="F20" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H20" s="10" t="n">
+      <c r="G20" s="9">
+        <v>10</v>
+      </c>
+      <c r="H20" s="10">
         <v>10</v>
       </c>
       <c r="I20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="12" t="n">
-        <f aca="false">H20/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K20" s="13" t="n">
-        <f aca="false">$O$4*J20</f>
+      <c r="J20" s="12">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K20" s="13">
+        <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="L20" s="14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="n">
+      <c r="L20" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="17" t="s">
@@ -1663,29 +1904,29 @@
       <c r="F21" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="H21" s="10" t="n">
+      <c r="G21" s="9">
+        <v>15</v>
+      </c>
+      <c r="H21" s="10">
         <v>10</v>
       </c>
       <c r="I21" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="12" t="n">
-        <f aca="false">H21/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K21" s="13" t="n">
-        <f aca="false">$O$4*J21</f>
+      <c r="J21" s="12">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K21" s="13">
+        <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
-      <c r="L21" s="14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="n">
+      <c r="L21" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="21" t="s">
@@ -1703,27 +1944,29 @@
       <c r="F22" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="H22" s="10" t="n">
+      <c r="G22" s="9">
+        <v>15</v>
+      </c>
+      <c r="H22" s="10">
         <v>15</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="12" t="n">
-        <f aca="false">H22/60</f>
+      <c r="J22" s="12">
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="K22" s="13" t="n">
-        <f aca="false">$O$2*J22</f>
+      <c r="K22" s="13">
+        <f>$O$2*J22</f>
         <v>18.75</v>
       </c>
-      <c r="L22" s="14"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="n">
+      <c r="L22" s="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" s="21" t="s">
@@ -1741,27 +1984,29 @@
       <c r="F23" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G23" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="H23" s="10" t="n">
+      <c r="G23" s="9">
+        <v>15</v>
+      </c>
+      <c r="H23" s="10">
         <v>15</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="12" t="n">
-        <f aca="false">H23/60</f>
+      <c r="J23" s="12">
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="K23" s="13" t="n">
-        <f aca="false">$O$2*J23</f>
+      <c r="K23" s="13">
+        <f>$O$2*J23</f>
         <v>18.75</v>
       </c>
-      <c r="L23" s="14"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="n">
+      <c r="L23" s="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -1779,381 +2024,381 @@
       <c r="F24" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="9" t="n">
+      <c r="G24" s="9">
         <v>30</v>
       </c>
-      <c r="H24" s="10" t="n">
+      <c r="H24" s="10">
         <v>15</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J24" s="12" t="n">
-        <f aca="false">H24/60</f>
+      <c r="J24" s="12">
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="K24" s="13" t="n">
-        <f aca="false">$O$2*J24</f>
+      <c r="K24" s="13">
+        <f>$O$2*J24</f>
         <v>18.75</v>
       </c>
-      <c r="L24" s="14" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="23" t="s">
+      <c r="L24" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="9" t="n">
+      <c r="G25" s="9">
         <v>30</v>
       </c>
-      <c r="H25" s="10" t="n">
+      <c r="H25" s="10">
         <v>15</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="12" t="n">
-        <f aca="false">H25/60</f>
+      <c r="J25" s="12">
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="K25" s="13" t="n">
-        <f aca="false">$O$2*J25</f>
+      <c r="K25" s="13">
+        <f>$O$2*J25</f>
         <v>18.75</v>
       </c>
-      <c r="L25" s="14" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="n">
+      <c r="L25" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="28" t="n">
-        <v>20</v>
-      </c>
-      <c r="H26" s="29" t="n">
+      <c r="G26" s="27">
+        <v>20</v>
+      </c>
+      <c r="H26" s="28">
         <v>20</v>
       </c>
       <c r="I26" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="J26" s="12" t="n">
-        <f aca="false">H26/60</f>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="K26" s="13" t="n">
-        <f aca="false">O3*J26</f>
+      <c r="J26" s="12">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K26" s="13">
+        <f>O3*J26</f>
         <v>17.5</v>
       </c>
       <c r="L26" s="14"/>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="n">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="24" t="s">
+      <c r="B27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G27" s="28" t="n">
-        <v>15</v>
-      </c>
-      <c r="H27" s="29" t="n">
+      <c r="G27" s="27">
+        <v>15</v>
+      </c>
+      <c r="H27" s="28">
         <v>10</v>
       </c>
       <c r="I27" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J27" s="12" t="n">
-        <f aca="false">H27/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K27" s="13" t="n">
-        <f aca="false">$O$4*J27</f>
+      <c r="J27" s="12">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K27" s="13">
+        <f>$O$4*J27</f>
         <v>8.75</v>
       </c>
-      <c r="L27" s="14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="n">
+      <c r="L27" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="24" t="s">
+      <c r="B28" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G28" s="28" t="n">
-        <v>15</v>
-      </c>
-      <c r="H28" s="29" t="n">
+      <c r="G28" s="27">
+        <v>15</v>
+      </c>
+      <c r="H28" s="28">
         <v>10</v>
       </c>
       <c r="I28" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="12" t="n">
-        <f aca="false">H28/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K28" s="13" t="n">
-        <f aca="false">$O$4*J28</f>
+      <c r="J28" s="12">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K28" s="13">
+        <f>$O$4*J28</f>
         <v>8.75</v>
       </c>
-      <c r="L28" s="14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="n">
+      <c r="L28" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="24" t="s">
+      <c r="B29" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G29" s="28" t="n">
-        <v>15</v>
-      </c>
-      <c r="H29" s="29" t="n">
+      <c r="G29" s="27">
+        <v>15</v>
+      </c>
+      <c r="H29" s="28">
         <v>10</v>
       </c>
       <c r="I29" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="12" t="n">
-        <f aca="false">H29/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K29" s="13" t="n">
-        <f aca="false">$O$4*J29</f>
+      <c r="J29" s="12">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K29" s="13">
+        <f>$O$4*J29</f>
         <v>8.75</v>
       </c>
-      <c r="L29" s="14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="n">
+      <c r="L29" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="24" t="s">
+      <c r="B30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="28" t="n">
-        <v>15</v>
-      </c>
-      <c r="H30" s="29" t="n">
+      <c r="G30" s="27">
+        <v>15</v>
+      </c>
+      <c r="H30" s="28">
         <v>10</v>
       </c>
       <c r="I30" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J30" s="12" t="n">
-        <f aca="false">H30/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K30" s="13" t="n">
-        <f aca="false">$O$4*J30</f>
+      <c r="J30" s="12">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K30" s="13">
+        <f>$O$4*J30</f>
         <v>8.75</v>
       </c>
-      <c r="L30" s="14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="n">
+      <c r="L30" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="24" t="s">
+      <c r="B31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="F31" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="28" t="n">
-        <v>10</v>
-      </c>
-      <c r="H31" s="29" t="n">
+      <c r="G31" s="27">
+        <v>10</v>
+      </c>
+      <c r="H31" s="28">
         <v>15</v>
       </c>
       <c r="I31" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="J31" s="12" t="n">
-        <f aca="false">H31/60</f>
+      <c r="J31" s="12">
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="K31" s="13" t="n">
-        <f aca="false">O3*J31</f>
+      <c r="K31" s="13">
+        <f>O3*J31</f>
         <v>13.125</v>
       </c>
       <c r="L31" s="14"/>
     </row>
-    <row r="32" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="n">
+    <row r="32" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="24" t="s">
+      <c r="B32" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="31" t="s">
+      <c r="F32" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="G32" s="28" t="n">
-        <v>10</v>
-      </c>
-      <c r="H32" s="29" t="n">
+      <c r="G32" s="27">
+        <v>10</v>
+      </c>
+      <c r="H32" s="28">
         <v>15</v>
       </c>
       <c r="I32" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J32" s="12" t="n">
-        <f aca="false">H32/60</f>
+      <c r="J32" s="12">
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="K32" s="13" t="n">
-        <f aca="false">$O$4*J32</f>
+      <c r="K32" s="13">
+        <f>$O$4*J32</f>
         <v>13.125</v>
       </c>
       <c r="L32" s="14"/>
     </row>
-    <row r="33" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="n">
+    <row r="33" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="24" t="s">
+      <c r="B33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="31" t="s">
+      <c r="F33" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="G33" s="28" t="n">
-        <v>10</v>
-      </c>
-      <c r="H33" s="29" t="n">
+      <c r="G33" s="27">
+        <v>10</v>
+      </c>
+      <c r="H33" s="28">
         <v>15</v>
       </c>
       <c r="I33" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="12" t="n">
-        <f aca="false">H33/60</f>
+      <c r="J33" s="12">
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="K33" s="13" t="n">
-        <f aca="false">$O$4*J33</f>
+      <c r="K33" s="13">
+        <f>$O$4*J33</f>
         <v>13.125</v>
       </c>
       <c r="L33" s="14"/>
     </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="n">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
@@ -2171,65 +2416,65 @@
       <c r="F34" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G34" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H34" s="10" t="n">
+      <c r="G34" s="9">
+        <v>10</v>
+      </c>
+      <c r="H34" s="10">
         <v>60</v>
       </c>
       <c r="I34" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J34" s="12" t="n">
-        <f aca="false">H34/60</f>
+      <c r="J34" s="12">
+        <f t="shared" ref="J34:J70" si="2">H34/60</f>
         <v>1</v>
       </c>
-      <c r="K34" s="13" t="n">
-        <f aca="false">$O$2*J34</f>
+      <c r="K34" s="13">
+        <f>$O$2*J34</f>
         <v>75</v>
       </c>
       <c r="L34" s="14"/>
     </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="n">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
         <v>34</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="25" t="s">
+      <c r="E35" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="F35" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G35" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H35" s="10" t="n">
+      <c r="G35" s="9">
+        <v>10</v>
+      </c>
+      <c r="H35" s="10">
         <v>30</v>
       </c>
       <c r="I35" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="12" t="n">
-        <f aca="false">H35/60</f>
+      <c r="J35" s="12">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="K35" s="13" t="n">
-        <f aca="false">$O$2*J35</f>
+      <c r="K35" s="13">
+        <f>$O$2*J35</f>
         <v>37.5</v>
       </c>
       <c r="L35" s="14"/>
     </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="n">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -2247,27 +2492,27 @@
       <c r="F36" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H36" s="10" t="n">
+      <c r="G36" s="9">
+        <v>10</v>
+      </c>
+      <c r="H36" s="10">
         <v>30</v>
       </c>
       <c r="I36" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J36" s="12" t="n">
-        <f aca="false">H36/60</f>
+      <c r="J36" s="12">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="K36" s="13" t="n">
-        <f aca="false">$O$2*J36</f>
+      <c r="K36" s="13">
+        <f>$O$2*J36</f>
         <v>37.5</v>
       </c>
       <c r="L36" s="14"/>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="n">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -2285,30 +2530,30 @@
       <c r="F37" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G37" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H37" s="10" t="n">
+      <c r="G37" s="9">
+        <v>10</v>
+      </c>
+      <c r="H37" s="10">
         <v>30</v>
       </c>
       <c r="I37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J37" s="12" t="n">
-        <f aca="false">H37/60</f>
+      <c r="J37" s="12">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="K37" s="13" t="n">
-        <f aca="false">$O$2*J37</f>
+      <c r="K37" s="13">
+        <f>$O$2*J37</f>
         <v>37.5</v>
       </c>
       <c r="L37" s="14"/>
     </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="n">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C38" s="6" t="s">
@@ -2323,30 +2568,30 @@
       <c r="F38" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G38" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H38" s="10" t="n">
+      <c r="G38" s="9">
+        <v>10</v>
+      </c>
+      <c r="H38" s="10">
         <v>20</v>
       </c>
       <c r="I38" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J38" s="12" t="n">
-        <f aca="false">H38/60</f>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="K38" s="13" t="n">
-        <f aca="false">$O$4*J38</f>
+      <c r="J38" s="12">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K38" s="13">
+        <f>$O$4*J38</f>
         <v>17.5</v>
       </c>
       <c r="L38" s="14"/>
     </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="n">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
         <v>38</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C39" s="6" t="s">
@@ -2361,30 +2606,30 @@
       <c r="F39" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G39" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H39" s="10" t="n">
+      <c r="G39" s="9">
+        <v>10</v>
+      </c>
+      <c r="H39" s="10">
         <v>20</v>
       </c>
       <c r="I39" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J39" s="12" t="n">
-        <f aca="false">H39/60</f>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="K39" s="13" t="n">
-        <f aca="false">$O$4*J39</f>
+      <c r="J39" s="12">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K39" s="13">
+        <f>$O$4*J39</f>
         <v>17.5</v>
       </c>
       <c r="L39" s="14"/>
     </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="n">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
         <v>39</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C40" s="6" t="s">
@@ -2399,30 +2644,30 @@
       <c r="F40" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G40" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H40" s="10" t="n">
+      <c r="G40" s="9">
+        <v>10</v>
+      </c>
+      <c r="H40" s="10">
         <v>60</v>
       </c>
       <c r="I40" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J40" s="12" t="n">
-        <f aca="false">H40/60</f>
+      <c r="J40" s="12">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K40" s="13" t="n">
-        <f aca="false">$O$4*J40</f>
+      <c r="K40" s="13">
+        <f>$O$4*J40</f>
         <v>52.5</v>
       </c>
       <c r="L40" s="14"/>
     </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="n">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="6">
         <v>40</v>
       </c>
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C41" s="6" t="s">
@@ -2437,30 +2682,30 @@
       <c r="F41" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="G41" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H41" s="10" t="n">
+      <c r="G41" s="9">
+        <v>10</v>
+      </c>
+      <c r="H41" s="10">
         <v>60</v>
       </c>
       <c r="I41" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J41" s="12" t="n">
-        <f aca="false">H41/60</f>
+      <c r="J41" s="12">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K41" s="13" t="n">
-        <f aca="false">$O$4*J41</f>
+      <c r="K41" s="13">
+        <f>$O$4*J41</f>
         <v>52.5</v>
       </c>
       <c r="L41" s="14"/>
     </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="n">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
         <v>41</v>
       </c>
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C42" s="6" t="s">
@@ -2475,27 +2720,27 @@
       <c r="F42" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="G42" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H42" s="10" t="n">
+      <c r="G42" s="9">
+        <v>10</v>
+      </c>
+      <c r="H42" s="10">
         <v>15</v>
       </c>
       <c r="I42" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="J42" s="12" t="n">
-        <f aca="false">H42/60</f>
+      <c r="J42" s="12">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="K42" s="13" t="n">
-        <f aca="false">$O$3*J42</f>
+      <c r="K42" s="13">
+        <f>$O$3*J42</f>
         <v>13.125</v>
       </c>
       <c r="L42" s="14"/>
     </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="n">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
@@ -2513,30 +2758,30 @@
       <c r="F43" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G43" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H43" s="10" t="n">
+      <c r="G43" s="9">
+        <v>10</v>
+      </c>
+      <c r="H43" s="10">
         <v>20</v>
       </c>
       <c r="I43" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="J43" s="12" t="n">
-        <f aca="false">H43/60</f>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="K43" s="13" t="n">
-        <f aca="false">$O$3*J43</f>
+      <c r="J43" s="12">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K43" s="13">
+        <f>$O$3*J43</f>
         <v>17.5</v>
       </c>
       <c r="L43" s="14"/>
     </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="n">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C44" s="6" t="s">
@@ -2551,33 +2796,33 @@
       <c r="F44" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G44" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H44" s="10" t="n">
+      <c r="G44" s="9">
+        <v>10</v>
+      </c>
+      <c r="H44" s="10">
         <v>20</v>
       </c>
       <c r="I44" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="J44" s="12" t="n">
-        <f aca="false">H44/60</f>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="K44" s="13" t="n">
-        <f aca="false">$O$3*J44</f>
+      <c r="J44" s="12">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K44" s="13">
+        <f>$O$3*J44</f>
         <v>17.5</v>
       </c>
       <c r="L44" s="14"/>
     </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="n">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="6">
         <v>44</v>
       </c>
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="23" t="s">
         <v>61</v>
       </c>
       <c r="D45" s="8" t="s">
@@ -2589,33 +2834,33 @@
       <c r="F45" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G45" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H45" s="10" t="n">
+      <c r="G45" s="9">
+        <v>10</v>
+      </c>
+      <c r="H45" s="10">
         <v>10</v>
       </c>
       <c r="I45" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J45" s="12" t="n">
-        <f aca="false">H45/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K45" s="13" t="n">
-        <f aca="false">$O$4*J45</f>
+      <c r="J45" s="12">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K45" s="13">
+        <f>$O$4*J45</f>
         <v>8.75</v>
       </c>
       <c r="L45" s="14"/>
     </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="n">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
         <v>45</v>
       </c>
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="23" t="s">
         <v>61</v>
       </c>
       <c r="D46" s="8" t="s">
@@ -2627,33 +2872,33 @@
       <c r="F46" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="G46" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H46" s="10" t="n">
+      <c r="G46" s="9">
+        <v>10</v>
+      </c>
+      <c r="H46" s="10">
         <v>10</v>
       </c>
       <c r="I46" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J46" s="12" t="n">
-        <f aca="false">H46/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K46" s="13" t="n">
-        <f aca="false">$O$4*J46</f>
+      <c r="J46" s="12">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K46" s="13">
+        <f>$O$4*J46</f>
         <v>8.75</v>
       </c>
       <c r="L46" s="14"/>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="n">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="6">
         <v>46</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C47" s="23" t="s">
         <v>61</v>
       </c>
       <c r="D47" s="8" t="s">
@@ -2665,33 +2910,33 @@
       <c r="F47" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G47" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H47" s="10" t="n">
+      <c r="G47" s="9">
+        <v>10</v>
+      </c>
+      <c r="H47" s="10">
         <v>10</v>
       </c>
       <c r="I47" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J47" s="12" t="n">
-        <f aca="false">H47/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K47" s="13" t="n">
-        <f aca="false">$O$4*J47</f>
+      <c r="J47" s="12">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K47" s="13">
+        <f>$O$4*J47</f>
         <v>8.75</v>
       </c>
       <c r="L47" s="14"/>
     </row>
-    <row r="48" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6" t="n">
+    <row r="48" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="6">
         <v>47</v>
       </c>
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="23" t="s">
         <v>61</v>
       </c>
       <c r="D48" s="8" t="s">
@@ -2703,27 +2948,27 @@
       <c r="F48" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="G48" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H48" s="10" t="n">
+      <c r="G48" s="9">
+        <v>10</v>
+      </c>
+      <c r="H48" s="10">
         <v>15</v>
       </c>
       <c r="I48" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J48" s="12" t="n">
-        <f aca="false">H48/60</f>
+      <c r="J48" s="12">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="K48" s="13" t="n">
-        <f aca="false">$O$4*J48</f>
+      <c r="K48" s="13">
+        <f>$O$4*J48</f>
         <v>13.125</v>
       </c>
       <c r="L48" s="14"/>
     </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6" t="n">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="6">
         <v>48</v>
       </c>
       <c r="B49" s="17" t="s">
@@ -2741,27 +2986,27 @@
       <c r="F49" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G49" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="H49" s="10" t="n">
+      <c r="G49" s="9">
+        <v>20</v>
+      </c>
+      <c r="H49" s="10">
         <v>10</v>
       </c>
       <c r="I49" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J49" s="12" t="n">
-        <f aca="false">H49/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K49" s="13" t="n">
-        <f aca="false">$O$4*J49</f>
+      <c r="J49" s="12">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K49" s="13">
+        <f>$O$4*J49</f>
         <v>8.75</v>
       </c>
       <c r="L49" s="14"/>
     </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6" t="n">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
         <v>49</v>
       </c>
       <c r="B50" s="17" t="s">
@@ -2779,27 +3024,27 @@
       <c r="F50" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G50" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H50" s="10" t="n">
+      <c r="G50" s="9">
+        <v>10</v>
+      </c>
+      <c r="H50" s="10">
         <v>10</v>
       </c>
       <c r="I50" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="J50" s="12" t="n">
-        <f aca="false">H50/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K50" s="13" t="n">
-        <f aca="false">O3*J50</f>
+      <c r="J50" s="12">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K50" s="13">
+        <f>O3*J50</f>
         <v>8.75</v>
       </c>
       <c r="L50" s="14"/>
     </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6" t="n">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="6">
         <v>50</v>
       </c>
       <c r="B51" s="17" t="s">
@@ -2817,27 +3062,27 @@
       <c r="F51" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G51" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H51" s="10" t="n">
+      <c r="G51" s="9">
+        <v>10</v>
+      </c>
+      <c r="H51" s="10">
         <v>10</v>
       </c>
       <c r="I51" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J51" s="12" t="n">
-        <f aca="false">H51/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K51" s="13" t="n">
-        <f aca="false">$O$4*J51</f>
+      <c r="J51" s="12">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K51" s="13">
+        <f t="shared" ref="K51:K67" si="3">$O$4*J51</f>
         <v>8.75</v>
       </c>
       <c r="L51" s="14"/>
     </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6" t="n">
+    <row r="52" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="6">
         <v>51</v>
       </c>
       <c r="B52" s="17" t="s">
@@ -2855,27 +3100,29 @@
       <c r="F52" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G52" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H52" s="10" t="n">
+      <c r="G52" s="9">
+        <v>10</v>
+      </c>
+      <c r="H52" s="10">
         <v>10</v>
       </c>
       <c r="I52" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J52" s="12" t="n">
-        <f aca="false">H52/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K52" s="13" t="n">
-        <f aca="false">$O$4*J52</f>
+      <c r="J52" s="12">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K52" s="13">
+        <f t="shared" si="3"/>
         <v>8.75</v>
       </c>
-      <c r="L52" s="14"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6" t="n">
+      <c r="L52" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="6">
         <v>52</v>
       </c>
       <c r="B53" s="21" t="s">
@@ -2893,27 +3140,29 @@
       <c r="F53" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G53" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="H53" s="10" t="n">
+      <c r="G53" s="9">
+        <v>15</v>
+      </c>
+      <c r="H53" s="10">
         <v>15</v>
       </c>
       <c r="I53" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J53" s="12" t="n">
-        <f aca="false">H53/60</f>
+      <c r="J53" s="12">
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="K53" s="13" t="n">
-        <f aca="false">$O$4*J53</f>
+      <c r="K53" s="13">
+        <f t="shared" si="3"/>
         <v>13.125</v>
       </c>
-      <c r="L53" s="14"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6" t="n">
+      <c r="L53" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="6">
         <v>53</v>
       </c>
       <c r="B54" s="17" t="s">
@@ -2931,29 +3180,29 @@
       <c r="F54" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G54" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H54" s="10" t="n">
+      <c r="G54" s="9">
+        <v>10</v>
+      </c>
+      <c r="H54" s="10">
         <v>10</v>
       </c>
       <c r="I54" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J54" s="12" t="n">
-        <f aca="false">H54/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K54" s="13" t="n">
-        <f aca="false">$O$4*J54</f>
+      <c r="J54" s="12">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K54" s="13">
+        <f t="shared" si="3"/>
         <v>8.75</v>
       </c>
-      <c r="L54" s="14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6" t="n">
+      <c r="L54" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
         <v>54</v>
       </c>
       <c r="B55" s="17" t="s">
@@ -2971,29 +3220,29 @@
       <c r="F55" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G55" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H55" s="10" t="n">
+      <c r="G55" s="9">
+        <v>10</v>
+      </c>
+      <c r="H55" s="10">
         <v>10</v>
       </c>
       <c r="I55" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J55" s="12" t="n">
-        <f aca="false">H55/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K55" s="13" t="n">
-        <f aca="false">$O$4*J55</f>
+      <c r="J55" s="12">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K55" s="13">
+        <f t="shared" si="3"/>
         <v>8.75</v>
       </c>
-      <c r="L55" s="14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6" t="n">
+      <c r="L55" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="6">
         <v>55</v>
       </c>
       <c r="B56" s="17" t="s">
@@ -3011,29 +3260,29 @@
       <c r="F56" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G56" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H56" s="10" t="n">
+      <c r="G56" s="9">
+        <v>10</v>
+      </c>
+      <c r="H56" s="10">
         <v>10</v>
       </c>
       <c r="I56" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J56" s="12" t="n">
-        <f aca="false">H56/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K56" s="13" t="n">
-        <f aca="false">$O$4*J56</f>
+      <c r="J56" s="12">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K56" s="13">
+        <f t="shared" si="3"/>
         <v>8.75</v>
       </c>
-      <c r="L56" s="14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6" t="n">
+      <c r="L56" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="6">
         <v>56</v>
       </c>
       <c r="B57" s="17" t="s">
@@ -3051,29 +3300,29 @@
       <c r="F57" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G57" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H57" s="10" t="n">
+      <c r="G57" s="9">
+        <v>10</v>
+      </c>
+      <c r="H57" s="10">
         <v>10</v>
       </c>
       <c r="I57" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J57" s="12" t="n">
-        <f aca="false">H57/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K57" s="13" t="n">
-        <f aca="false">$O$4*J57</f>
+      <c r="J57" s="12">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K57" s="13">
+        <f t="shared" si="3"/>
         <v>8.75</v>
       </c>
-      <c r="L57" s="14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="n">
+      <c r="L57" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="6">
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
@@ -3091,29 +3340,29 @@
       <c r="F58" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G58" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="H58" s="10" t="n">
+      <c r="G58" s="9">
+        <v>15</v>
+      </c>
+      <c r="H58" s="10">
         <v>10</v>
       </c>
       <c r="I58" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J58" s="12" t="n">
-        <f aca="false">H58/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K58" s="13" t="n">
-        <f aca="false">$O$4*J58</f>
+      <c r="J58" s="12">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K58" s="13">
+        <f t="shared" si="3"/>
         <v>8.75</v>
       </c>
-      <c r="L58" s="14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6" t="n">
+      <c r="L58" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="6">
         <v>58</v>
       </c>
       <c r="B59" s="17" t="s">
@@ -3131,29 +3380,29 @@
       <c r="F59" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G59" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H59" s="10" t="n">
+      <c r="G59" s="9">
+        <v>10</v>
+      </c>
+      <c r="H59" s="10">
         <v>10</v>
       </c>
       <c r="I59" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J59" s="12" t="n">
-        <f aca="false">H59/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K59" s="13" t="n">
-        <f aca="false">$O$4*J59</f>
+      <c r="J59" s="12">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K59" s="13">
+        <f t="shared" si="3"/>
         <v>8.75</v>
       </c>
-      <c r="L59" s="14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="6" t="n">
+      <c r="L59" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="6">
         <v>59</v>
       </c>
       <c r="B60" s="21" t="s">
@@ -3171,29 +3420,29 @@
       <c r="F60" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G60" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="H60" s="10" t="n">
+      <c r="G60" s="9">
+        <v>15</v>
+      </c>
+      <c r="H60" s="10">
         <v>10</v>
       </c>
       <c r="I60" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J60" s="12" t="n">
-        <f aca="false">H60/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K60" s="13" t="n">
-        <f aca="false">$O$4*J60</f>
+      <c r="J60" s="12">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K60" s="13">
+        <f t="shared" si="3"/>
         <v>8.75</v>
       </c>
-      <c r="L60" s="14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6" t="n">
+      <c r="L60" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="6">
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
@@ -3211,29 +3460,29 @@
       <c r="F61" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G61" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="H61" s="10" t="n">
+      <c r="G61" s="9">
+        <v>15</v>
+      </c>
+      <c r="H61" s="10">
         <v>10</v>
       </c>
       <c r="I61" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J61" s="12" t="n">
-        <f aca="false">H61/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K61" s="13" t="n">
-        <f aca="false">$O$4*J61</f>
+      <c r="J61" s="12">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K61" s="13">
+        <f t="shared" si="3"/>
         <v>8.75</v>
       </c>
-      <c r="L61" s="14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="6" t="n">
+      <c r="L61" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="6">
         <v>61</v>
       </c>
       <c r="B62" s="17" t="s">
@@ -3251,29 +3500,29 @@
       <c r="F62" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G62" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H62" s="10" t="n">
+      <c r="G62" s="9">
+        <v>10</v>
+      </c>
+      <c r="H62" s="10">
         <v>10</v>
       </c>
       <c r="I62" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J62" s="12" t="n">
-        <f aca="false">H62/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K62" s="13" t="n">
-        <f aca="false">$O$4*J62</f>
+      <c r="J62" s="12">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K62" s="13">
+        <f t="shared" si="3"/>
         <v>8.75</v>
       </c>
-      <c r="L62" s="14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6" t="n">
+      <c r="L62" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="6">
         <v>62</v>
       </c>
       <c r="B63" s="17" t="s">
@@ -3291,29 +3540,29 @@
       <c r="F63" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G63" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H63" s="10" t="n">
+      <c r="G63" s="9">
+        <v>10</v>
+      </c>
+      <c r="H63" s="10">
         <v>10</v>
       </c>
       <c r="I63" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J63" s="12" t="n">
-        <f aca="false">H63/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K63" s="13" t="n">
-        <f aca="false">$O$4*J63</f>
+      <c r="J63" s="12">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K63" s="13">
+        <f t="shared" si="3"/>
         <v>8.75</v>
       </c>
-      <c r="L63" s="14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="6" t="n">
+      <c r="L63" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="6">
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
@@ -3331,29 +3580,29 @@
       <c r="F64" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G64" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H64" s="10" t="n">
+      <c r="G64" s="9">
+        <v>10</v>
+      </c>
+      <c r="H64" s="10">
         <v>10</v>
       </c>
       <c r="I64" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J64" s="12" t="n">
-        <f aca="false">H64/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K64" s="13" t="n">
-        <f aca="false">$O$4*J64</f>
+      <c r="J64" s="12">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K64" s="13">
+        <f t="shared" si="3"/>
         <v>8.75</v>
       </c>
-      <c r="L64" s="14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="6" t="n">
+      <c r="L64" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" s="6">
         <v>64</v>
       </c>
       <c r="B65" s="17" t="s">
@@ -3371,29 +3620,29 @@
       <c r="F65" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G65" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H65" s="10" t="n">
+      <c r="G65" s="9">
+        <v>10</v>
+      </c>
+      <c r="H65" s="10">
         <v>10</v>
       </c>
       <c r="I65" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J65" s="12" t="n">
-        <f aca="false">H65/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K65" s="13" t="n">
-        <f aca="false">$O$4*J65</f>
+      <c r="J65" s="12">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K65" s="13">
+        <f t="shared" si="3"/>
         <v>8.75</v>
       </c>
-      <c r="L65" s="14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="6" t="n">
+      <c r="L65" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" s="6">
         <v>65</v>
       </c>
       <c r="B66" s="21" t="s">
@@ -3411,29 +3660,29 @@
       <c r="F66" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G66" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H66" s="10" t="n">
+      <c r="G66" s="9">
+        <v>10</v>
+      </c>
+      <c r="H66" s="10">
         <v>10</v>
       </c>
       <c r="I66" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J66" s="12" t="n">
-        <f aca="false">H66/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K66" s="13" t="n">
-        <f aca="false">$O$4*J66</f>
+      <c r="J66" s="12">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K66" s="13">
+        <f t="shared" si="3"/>
         <v>8.75</v>
       </c>
-      <c r="L66" s="14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="6" t="n">
+      <c r="L66" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" s="6">
         <v>66</v>
       </c>
       <c r="B67" s="17" t="s">
@@ -3451,29 +3700,29 @@
       <c r="F67" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G67" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="H67" s="10" t="n">
+      <c r="G67" s="9">
+        <v>10</v>
+      </c>
+      <c r="H67" s="10">
         <v>10</v>
       </c>
       <c r="I67" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J67" s="12" t="n">
-        <f aca="false">H67/60</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K67" s="13" t="n">
-        <f aca="false">$O$4*J67</f>
+      <c r="J67" s="12">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K67" s="13">
+        <f t="shared" si="3"/>
         <v>8.75</v>
       </c>
-      <c r="L67" s="14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="6" t="n">
+      <c r="L67" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" s="6">
         <v>67</v>
       </c>
       <c r="B68" s="21" t="s">
@@ -3491,123 +3740,122 @@
       <c r="F68" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G68" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="H68" s="10" t="n">
+      <c r="G68" s="9">
+        <v>20</v>
+      </c>
+      <c r="H68" s="10">
         <v>30</v>
       </c>
       <c r="I68" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J68" s="12" t="n">
-        <f aca="false">H68/60</f>
+      <c r="J68" s="12">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="K68" s="13" t="n">
-        <f aca="false">$O$2*J68</f>
+      <c r="K68" s="13">
+        <f>$O$2*J68</f>
         <v>37.5</v>
       </c>
-      <c r="L68" s="14"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="32" t="n">
+      <c r="L68" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" s="31">
         <v>68</v>
       </c>
-      <c r="B69" s="33" t="s">
+      <c r="B69" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C69" s="32" t="s">
+      <c r="C69" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D69" s="34" t="s">
+      <c r="D69" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="E69" s="34" t="s">
+      <c r="E69" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="F69" s="34" t="s">
+      <c r="F69" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="G69" s="35" t="n">
-        <v>20</v>
-      </c>
-      <c r="H69" s="36" t="n">
+      <c r="G69" s="34">
+        <v>20</v>
+      </c>
+      <c r="H69" s="35">
         <v>30</v>
       </c>
       <c r="I69" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J69" s="12" t="n">
-        <f aca="false">H69/60</f>
+      <c r="J69" s="12">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="K69" s="13" t="n">
-        <f aca="false">$O$2*J69</f>
+      <c r="K69" s="13">
+        <f>$O$2*J69</f>
         <v>37.5</v>
       </c>
-      <c r="L69" s="14"/>
-    </row>
-    <row r="70" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="20" t="n">
+      <c r="L69" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="20">
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="37"/>
-      <c r="D70" s="38" t="s">
+      <c r="C70" s="36"/>
+      <c r="D70" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="E70" s="38" t="s">
+      <c r="E70" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="F70" s="39" t="s">
+      <c r="F70" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="G70" s="40" t="n">
+      <c r="G70" s="39">
         <v>30</v>
       </c>
-      <c r="H70" s="41" t="n">
+      <c r="H70" s="40">
         <v>480</v>
       </c>
       <c r="I70" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="J70" s="12" t="n">
-        <f aca="false">H70/60</f>
+      <c r="J70" s="12">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="K70" s="13" t="n">
-        <f aca="false">O3*J70</f>
+      <c r="K70" s="13">
+        <f>O3*J70</f>
         <v>420</v>
       </c>
-      <c r="L70" s="14" t="n">
+      <c r="L70" s="14">
         <v>120</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G71" s="42" t="n">
-        <f aca="false">SUM(G2:G70)</f>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G71" s="41">
+        <f>SUM(G2:G70)</f>
         <v>925</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F72" s="43" t="s">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F72" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="G72" s="44" t="n">
-        <f aca="false">G71/60*O5</f>
+      <c r="G72" s="43">
+        <f>G71/60*O5</f>
         <v>925</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documento_projeto/Pixels - Orçamento de correção.xlsx
+++ b/documento_projeto/Pixels - Orçamento de correção.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fatec\pixels\documento_projeto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\FATEC\3SEMESTRE\acessibilidade\pixels-master\documento_projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156781FF-1DE3-4CB1-B9C5-2541318ED48E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19A82C8-B44B-44A3-882D-087197E1652E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,15 +17,6 @@
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -1030,7 +1021,7 @@
   <dimension ref="A1:O72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3158,7 +3149,7 @@
         <v>13.125</v>
       </c>
       <c r="L53" s="14">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">

--- a/documento_projeto/Pixels - Orçamento de correção.xlsx
+++ b/documento_projeto/Pixels - Orçamento de correção.xlsx
@@ -5,18 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\FATEC\3SEMESTRE\acessibilidade\pixels-master\documento_projeto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp1\htdocs\pixels\documento_projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19A82C8-B44B-44A3-882D-087197E1652E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47587BD4-1928-4B71-A290-D3BE21015B2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="orçamento" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -383,7 +392,7 @@
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="&quot;R$ &quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -410,6 +419,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -515,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -636,6 +653,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1020,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1356,7 +1379,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1366,7 +1389,7 @@
       <c r="C8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="45" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -2842,7 +2865,9 @@
         <f>$O$4*J45</f>
         <v>8.75</v>
       </c>
-      <c r="L45" s="14"/>
+      <c r="L45" s="14">
+        <v>5</v>
+      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
@@ -2880,7 +2905,9 @@
         <f>$O$4*J46</f>
         <v>8.75</v>
       </c>
-      <c r="L46" s="14"/>
+      <c r="L46" s="14">
+        <v>5</v>
+      </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
@@ -2918,7 +2945,9 @@
         <f>$O$4*J47</f>
         <v>8.75</v>
       </c>
-      <c r="L47" s="14"/>
+      <c r="L47" s="14">
+        <v>5</v>
+      </c>
     </row>
     <row r="48" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
@@ -2956,7 +2985,7 @@
         <f>$O$4*J48</f>
         <v>13.125</v>
       </c>
-      <c r="L48" s="14"/>
+      <c r="L48" s="44"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
